--- a/level-2/codeforces-phase-2-3/codeforces-phase-2-3.xlsx
+++ b/level-2/codeforces-phase-2-3/codeforces-phase-2-3.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F76AA8FA-4744-4E3D-8924-5CE85DFFC74D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13650" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="codeforces level 2.3" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -408,7 +409,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -661,19 +662,13 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -694,26 +689,18 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="50">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="48">
     <dxf>
       <fill>
         <patternFill>
@@ -1325,7 +1312,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O218"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -1333,97 +1320,97 @@
       <selection pane="bottomLeft" sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" style="5" customWidth="1"/>
-    <col min="3" max="7" width="7.140625" style="4" customWidth="1"/>
-    <col min="8" max="12" width="15.140625" style="4" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" style="4" customWidth="1"/>
-    <col min="14" max="14" width="62.5703125" style="17" customWidth="1"/>
+    <col min="1" max="1" width="7.6640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" style="5" customWidth="1"/>
+    <col min="3" max="7" width="7.109375" style="4" customWidth="1"/>
+    <col min="8" max="12" width="15.109375" style="4" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" style="4" customWidth="1"/>
+    <col min="14" max="14" width="62.5546875" style="17" customWidth="1"/>
     <col min="15" max="15" width="99" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="6" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="19" t="s">
+    <row r="1" spans="1:15" s="6" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="K1" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="L1" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="M1" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="N1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="18" t="s">
+      <c r="O1" s="20" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="18" t="s">
+    <row r="2" spans="1:15" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="22"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="20" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="25"/>
-      <c r="B3" s="28"/>
+    <row r="3" spans="1:15" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="23"/>
+      <c r="B3" s="26"/>
       <c r="C3" s="7">
         <f>SUM(C4:C806)</f>
         <v>24</v>
       </c>
       <c r="D3" s="7">
         <f>SUM(D4:D806)</f>
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E3" s="7">
         <f>SUM(E4:E806)</f>
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F3" s="7">
         <f>SUM(F4:F806)</f>
@@ -1434,27 +1421,27 @@
         <v>8</v>
       </c>
       <c r="H3" s="8" t="e">
-        <f t="shared" ref="H3:M3" si="0">AVERAGE(H4:H176)</f>
+        <f>AVERAGE(H4:H176)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I3" s="8" t="e">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(I4:I176)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J3" s="8" t="e">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(J4:J176)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K3" s="8" t="e">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(K4:K176)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L3" s="8" t="e">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(L4:L176)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M3" s="8">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(M4:M176)</f>
         <v>0</v>
       </c>
       <c r="N3" s="7">
@@ -1466,7 +1453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>333</v>
       </c>
@@ -1494,7 +1481,7 @@
       </c>
       <c r="O4" s="12"/>
     </row>
-    <row r="5" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>346</v>
       </c>
@@ -1522,7 +1509,7 @@
       </c>
       <c r="O5" s="12"/>
     </row>
-    <row r="6" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>369</v>
       </c>
@@ -1550,7 +1537,7 @@
       </c>
       <c r="O6" s="14"/>
     </row>
-    <row r="7" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>138</v>
       </c>
@@ -1578,7 +1565,7 @@
       </c>
       <c r="O7" s="12"/>
     </row>
-    <row r="8" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="13">
         <v>147</v>
       </c>
@@ -1598,7 +1585,7 @@
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
       <c r="M8" s="10">
-        <f t="shared" ref="M8:M71" si="1">SUM(H8:L8)</f>
+        <f t="shared" ref="M8:M42" si="0">SUM(H8:L8)</f>
         <v>0</v>
       </c>
       <c r="N8" s="16" t="s">
@@ -1606,7 +1593,7 @@
       </c>
       <c r="O8" s="14"/>
     </row>
-    <row r="9" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>181</v>
       </c>
@@ -1626,7 +1613,7 @@
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
       <c r="M9" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N9" s="16" t="s">
@@ -1634,7 +1621,7 @@
       </c>
       <c r="O9" s="12"/>
     </row>
-    <row r="10" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>193</v>
       </c>
@@ -1654,7 +1641,7 @@
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
       <c r="M10" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N10" s="16" t="s">
@@ -1662,7 +1649,7 @@
       </c>
       <c r="O10" s="14"/>
     </row>
-    <row r="11" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>194</v>
       </c>
@@ -1682,7 +1669,7 @@
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
       <c r="M11" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N11" s="16" t="s">
@@ -1690,7 +1677,7 @@
       </c>
       <c r="O11" s="12"/>
     </row>
-    <row r="12" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>216</v>
       </c>
@@ -1710,7 +1697,7 @@
       <c r="K12" s="13"/>
       <c r="L12" s="13"/>
       <c r="M12" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N12" s="16" t="s">
@@ -1718,7 +1705,7 @@
       </c>
       <c r="O12" s="14"/>
     </row>
-    <row r="13" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <v>249</v>
       </c>
@@ -1738,7 +1725,7 @@
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
       <c r="M13" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N13" s="16" t="s">
@@ -1746,7 +1733,7 @@
       </c>
       <c r="O13" s="12"/>
     </row>
-    <row r="14" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>254</v>
       </c>
@@ -1766,7 +1753,7 @@
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
       <c r="M14" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N14" s="16" t="s">
@@ -1774,7 +1761,7 @@
       </c>
       <c r="O14" s="14"/>
     </row>
-    <row r="15" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <v>279</v>
       </c>
@@ -1794,7 +1781,7 @@
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
       <c r="M15" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N15" s="16" t="s">
@@ -1802,7 +1789,7 @@
       </c>
       <c r="O15" s="14"/>
     </row>
-    <row r="16" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
         <v>286</v>
       </c>
@@ -1822,7 +1809,7 @@
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
       <c r="M16" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N16" s="16" t="s">
@@ -1830,7 +1817,7 @@
       </c>
       <c r="O16" s="14"/>
     </row>
-    <row r="17" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <v>296</v>
       </c>
@@ -1850,7 +1837,7 @@
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
       <c r="M17" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N17" s="16" t="s">
@@ -1858,7 +1845,7 @@
       </c>
       <c r="O17" s="14"/>
     </row>
-    <row r="18" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
         <v>297</v>
       </c>
@@ -1878,7 +1865,7 @@
       <c r="K18" s="13"/>
       <c r="L18" s="13"/>
       <c r="M18" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N18" s="16" t="s">
@@ -1886,7 +1873,7 @@
       </c>
       <c r="O18" s="14"/>
     </row>
-    <row r="19" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
         <v>306</v>
       </c>
@@ -1906,7 +1893,7 @@
       <c r="K19" s="9"/>
       <c r="L19" s="9"/>
       <c r="M19" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N19" s="16" t="s">
@@ -1914,7 +1901,7 @@
       </c>
       <c r="O19" s="14"/>
     </row>
-    <row r="20" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
         <v>318</v>
       </c>
@@ -1934,7 +1921,7 @@
       <c r="K20" s="9"/>
       <c r="L20" s="9"/>
       <c r="M20" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N20" s="16" t="s">
@@ -1942,7 +1929,7 @@
       </c>
       <c r="O20" s="14"/>
     </row>
-    <row r="21" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="9">
         <v>324</v>
       </c>
@@ -1962,7 +1949,7 @@
       <c r="K21" s="13"/>
       <c r="L21" s="13"/>
       <c r="M21" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N21" s="16" t="s">
@@ -1970,7 +1957,7 @@
       </c>
       <c r="O21" s="14"/>
     </row>
-    <row r="22" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9">
         <v>139</v>
       </c>
@@ -1990,7 +1977,7 @@
       <c r="K22" s="9"/>
       <c r="L22" s="9"/>
       <c r="M22" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N22" s="16" t="s">
@@ -1998,7 +1985,7 @@
       </c>
       <c r="O22" s="14"/>
     </row>
-    <row r="23" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9">
         <v>338</v>
       </c>
@@ -2018,7 +2005,7 @@
       <c r="K23" s="9"/>
       <c r="L23" s="9"/>
       <c r="M23" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N23" s="16" t="s">
@@ -2026,7 +2013,7 @@
       </c>
       <c r="O23" s="12"/>
     </row>
-    <row r="24" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="13">
         <v>133</v>
       </c>
@@ -2046,7 +2033,7 @@
       <c r="K24" s="9"/>
       <c r="L24" s="9"/>
       <c r="M24" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N24" s="16" t="s">
@@ -2054,7 +2041,7 @@
       </c>
       <c r="O24" s="14"/>
     </row>
-    <row r="25" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="9">
         <v>178</v>
       </c>
@@ -2074,7 +2061,7 @@
       <c r="K25" s="9"/>
       <c r="L25" s="9"/>
       <c r="M25" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N25" s="16" t="s">
@@ -2082,7 +2069,7 @@
       </c>
       <c r="O25" s="12"/>
     </row>
-    <row r="26" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9">
         <v>202</v>
       </c>
@@ -2102,7 +2089,7 @@
       <c r="K26" s="9"/>
       <c r="L26" s="9"/>
       <c r="M26" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N26" s="16" t="s">
@@ -2110,7 +2097,7 @@
       </c>
       <c r="O26" s="14"/>
     </row>
-    <row r="27" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="9">
         <v>100</v>
       </c>
@@ -2130,7 +2117,7 @@
       <c r="K27" s="9"/>
       <c r="L27" s="9"/>
       <c r="M27" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N27" s="16" t="s">
@@ -2138,9 +2125,9 @@
       </c>
       <c r="O27" s="14"/>
     </row>
-    <row r="28" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="9">
-        <v>295</v>
+        <v>256</v>
       </c>
       <c r="B28" s="9">
         <v>1400</v>
@@ -2152,23 +2139,23 @@
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
       <c r="M28" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N28" s="16" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="O28" s="14"/>
     </row>
-    <row r="29" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="9">
-        <v>298</v>
+        <v>362</v>
       </c>
       <c r="B29" s="9">
         <v>1400</v>
@@ -2180,23 +2167,23 @@
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
       <c r="M29" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N29" s="16" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="O29" s="14"/>
     </row>
-    <row r="30" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="9">
-        <v>300</v>
+        <v>372</v>
       </c>
       <c r="B30" s="9">
         <v>1400</v>
@@ -2208,23 +2195,23 @@
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="13"/>
-      <c r="L30" s="13"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
       <c r="M30" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N30" s="16" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="O30" s="14"/>
     </row>
-    <row r="31" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9">
-        <v>326</v>
+        <v>373</v>
       </c>
       <c r="B31" s="9">
         <v>1400</v>
@@ -2242,20 +2229,20 @@
       <c r="K31" s="13"/>
       <c r="L31" s="13"/>
       <c r="M31" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N31" s="16" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="O31" s="14"/>
     </row>
-    <row r="32" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="9">
-        <v>355</v>
+    <row r="32" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="13">
+        <v>148</v>
       </c>
       <c r="B32" s="9">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="9">
@@ -2270,20 +2257,20 @@
       <c r="K32" s="9"/>
       <c r="L32" s="9"/>
       <c r="M32" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N32" s="16" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="O32" s="14"/>
     </row>
-    <row r="33" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="9">
-        <v>365</v>
+        <v>170</v>
       </c>
       <c r="B33" s="9">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="9">
@@ -2298,45 +2285,45 @@
       <c r="K33" s="9"/>
       <c r="L33" s="9"/>
       <c r="M33" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N33" s="16" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="O33" s="14"/>
     </row>
-    <row r="34" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="13">
-        <v>391</v>
+    <row r="34" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="9">
+        <v>173</v>
       </c>
       <c r="B34" s="9">
-        <v>1400</v>
-      </c>
-      <c r="C34" s="15"/>
+        <v>1500</v>
+      </c>
+      <c r="C34" s="9"/>
       <c r="D34" s="9">
         <v>1</v>
       </c>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="13"/>
-      <c r="L34" s="13"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
       <c r="M34" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N34" s="16" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="O34" s="14"/>
     </row>
-    <row r="35" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="9">
-        <v>135</v>
+        <v>199</v>
       </c>
       <c r="B35" s="9">
         <v>1500</v>
@@ -2348,23 +2335,23 @@
       <c r="E35" s="9"/>
       <c r="F35" s="9"/>
       <c r="G35" s="9"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="13"/>
-      <c r="L35" s="13"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
       <c r="M35" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N35" s="16" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="O35" s="14"/>
     </row>
-    <row r="36" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="9">
-        <v>237</v>
+        <v>208</v>
       </c>
       <c r="B36" s="9">
         <v>1500</v>
@@ -2376,23 +2363,23 @@
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
       <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="9"/>
-      <c r="L36" s="9"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="13"/>
       <c r="M36" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N36" s="16" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="O36" s="14"/>
     </row>
-    <row r="37" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="9">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="B37" s="9">
         <v>1500</v>
@@ -2410,17 +2397,17 @@
       <c r="K37" s="13"/>
       <c r="L37" s="13"/>
       <c r="M37" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N37" s="16" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="O37" s="12"/>
     </row>
-    <row r="38" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="9">
-        <v>250</v>
+        <v>293</v>
       </c>
       <c r="B38" s="9">
         <v>1500</v>
@@ -2438,17 +2425,17 @@
       <c r="K38" s="9"/>
       <c r="L38" s="9"/>
       <c r="M38" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N38" s="16" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="O38" s="14"/>
     </row>
-    <row r="39" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="9">
-        <v>262</v>
+        <v>336</v>
       </c>
       <c r="B39" s="9">
         <v>1500</v>
@@ -2466,45 +2453,45 @@
       <c r="K39" s="13"/>
       <c r="L39" s="13"/>
       <c r="M39" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N39" s="16" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="O39" s="14"/>
     </row>
-    <row r="40" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="9">
-        <v>353</v>
+    <row r="40" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="13">
+        <v>389</v>
       </c>
       <c r="B40" s="9">
         <v>1500</v>
       </c>
-      <c r="C40" s="9"/>
+      <c r="C40" s="15"/>
       <c r="D40" s="9">
         <v>1</v>
       </c>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
       <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9"/>
-      <c r="J40" s="9"/>
-      <c r="K40" s="9"/>
-      <c r="L40" s="9"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="13"/>
+      <c r="K40" s="13"/>
+      <c r="L40" s="13"/>
       <c r="M40" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N40" s="16" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="O40" s="14"/>
     </row>
-    <row r="41" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="9">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="B41" s="9">
         <v>1600</v>
@@ -2522,17 +2509,17 @@
       <c r="K41" s="9"/>
       <c r="L41" s="9"/>
       <c r="M41" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N41" s="16" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="O41" s="14"/>
     </row>
-    <row r="42" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="13">
-        <v>184</v>
+    <row r="42" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="9">
+        <v>158</v>
       </c>
       <c r="B42" s="9">
         <v>1600</v>
@@ -2544,23 +2531,23 @@
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
       <c r="G42" s="9"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="9"/>
-      <c r="J42" s="9"/>
-      <c r="K42" s="9"/>
-      <c r="L42" s="9"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="13"/>
+      <c r="K42" s="13"/>
+      <c r="L42" s="13"/>
       <c r="M42" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N42" s="16" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="O42" s="14"/>
     </row>
-    <row r="43" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="9">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="B43" s="9">
         <v>1600</v>
@@ -2572,23 +2559,23 @@
       <c r="E43" s="9"/>
       <c r="F43" s="9"/>
       <c r="G43" s="9"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="9"/>
-      <c r="J43" s="9"/>
-      <c r="K43" s="9"/>
-      <c r="L43" s="9"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="13"/>
+      <c r="K43" s="13"/>
+      <c r="L43" s="13"/>
       <c r="M43" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="M43:M115" si="1">SUM(H43:L43)</f>
         <v>0</v>
       </c>
       <c r="N43" s="16" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="O43" s="14"/>
     </row>
-    <row r="44" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="13">
-        <v>219</v>
+    <row r="44" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="9">
+        <v>335</v>
       </c>
       <c r="B44" s="9">
         <v>1600</v>
@@ -2610,16 +2597,16 @@
         <v>0</v>
       </c>
       <c r="N44" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="O44" s="12"/>
-    </row>
-    <row r="45" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="O44" s="14"/>
+    </row>
+    <row r="45" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="9">
-        <v>282</v>
+        <v>114</v>
       </c>
       <c r="B45" s="9">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="C45" s="9"/>
       <c r="D45" s="9">
@@ -2638,16 +2625,16 @@
         <v>0</v>
       </c>
       <c r="N45" s="16" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="O45" s="14"/>
     </row>
-    <row r="46" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="9">
-        <v>329</v>
+    <row r="46" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="13">
+        <v>127</v>
       </c>
       <c r="B46" s="9">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="C46" s="9"/>
       <c r="D46" s="9">
@@ -2666,16 +2653,16 @@
         <v>0</v>
       </c>
       <c r="N46" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="O46" s="12"/>
-    </row>
-    <row r="47" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="O46" s="14"/>
+    </row>
+    <row r="47" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="9">
-        <v>330</v>
+        <v>130</v>
       </c>
       <c r="B47" s="9">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="C47" s="9"/>
       <c r="D47" s="9">
@@ -2684,26 +2671,26 @@
       <c r="E47" s="9"/>
       <c r="F47" s="9"/>
       <c r="G47" s="9"/>
-      <c r="H47" s="13"/>
-      <c r="I47" s="13"/>
-      <c r="J47" s="13"/>
-      <c r="K47" s="13"/>
-      <c r="L47" s="13"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c r="L47" s="9"/>
       <c r="M47" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N47" s="16" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="O47" s="14"/>
     </row>
-    <row r="48" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="13">
-        <v>172</v>
+    <row r="48" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="9">
+        <v>307</v>
       </c>
       <c r="B48" s="9">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="C48" s="9"/>
       <c r="D48" s="9">
@@ -2722,13 +2709,13 @@
         <v>0</v>
       </c>
       <c r="N48" s="16" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="O48" s="14"/>
     </row>
-    <row r="49" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="9">
-        <v>266</v>
+        <v>347</v>
       </c>
       <c r="B49" s="9">
         <v>1800</v>
@@ -2740,26 +2727,26 @@
       <c r="E49" s="9"/>
       <c r="F49" s="9"/>
       <c r="G49" s="9"/>
-      <c r="H49" s="13"/>
-      <c r="I49" s="13"/>
-      <c r="J49" s="13"/>
-      <c r="K49" s="13"/>
-      <c r="L49" s="13"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c r="L49" s="9"/>
       <c r="M49" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N49" s="16" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="O49" s="14"/>
     </row>
-    <row r="50" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="9">
-        <v>275</v>
+    <row r="50" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="13">
+        <v>233</v>
       </c>
       <c r="B50" s="9">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="C50" s="9"/>
       <c r="D50" s="9">
@@ -2778,16 +2765,16 @@
         <v>0</v>
       </c>
       <c r="N50" s="16" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="O50" s="14"/>
     </row>
-    <row r="51" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="13">
-        <v>125</v>
+        <v>179</v>
       </c>
       <c r="B51" s="9">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="C51" s="9"/>
       <c r="D51" s="9">
@@ -2796,32 +2783,32 @@
       <c r="E51" s="9"/>
       <c r="F51" s="9"/>
       <c r="G51" s="9"/>
-      <c r="H51" s="9"/>
-      <c r="I51" s="9"/>
-      <c r="J51" s="9"/>
-      <c r="K51" s="9"/>
-      <c r="L51" s="9"/>
+      <c r="H51" s="13"/>
+      <c r="I51" s="13"/>
+      <c r="J51" s="13"/>
+      <c r="K51" s="13"/>
+      <c r="L51" s="13"/>
       <c r="M51" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N51" s="16" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="O51" s="14"/>
     </row>
-    <row r="52" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="13">
-        <v>195</v>
+    <row r="52" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="9">
+        <v>295</v>
       </c>
       <c r="B52" s="9">
-        <v>1900</v>
+        <v>1400</v>
       </c>
       <c r="C52" s="9"/>
-      <c r="D52" s="9">
-        <v>1</v>
-      </c>
-      <c r="E52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9">
+        <v>1</v>
+      </c>
       <c r="F52" s="9"/>
       <c r="G52" s="9"/>
       <c r="H52" s="9"/>
@@ -2830,26 +2817,26 @@
       <c r="K52" s="9"/>
       <c r="L52" s="9"/>
       <c r="M52" s="10">
-        <f t="shared" si="1"/>
+        <f>SUM(H52:L52)</f>
         <v>0</v>
       </c>
       <c r="N52" s="16" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="O52" s="14"/>
     </row>
-    <row r="53" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="9">
-        <v>113</v>
+        <v>298</v>
       </c>
       <c r="B53" s="9">
-        <v>2000</v>
+        <v>1400</v>
       </c>
       <c r="C53" s="9"/>
-      <c r="D53" s="9">
-        <v>1</v>
-      </c>
-      <c r="E53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9">
+        <v>1</v>
+      </c>
       <c r="F53" s="9"/>
       <c r="G53" s="9"/>
       <c r="H53" s="9"/>
@@ -2858,26 +2845,26 @@
       <c r="K53" s="9"/>
       <c r="L53" s="9"/>
       <c r="M53" s="10">
-        <f t="shared" si="1"/>
+        <f>SUM(H53:L53)</f>
         <v>0</v>
       </c>
       <c r="N53" s="16" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="O53" s="14"/>
     </row>
-    <row r="54" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="9">
-        <v>198</v>
+        <v>300</v>
       </c>
       <c r="B54" s="9">
-        <v>2000</v>
+        <v>1400</v>
       </c>
       <c r="C54" s="9"/>
-      <c r="D54" s="9">
-        <v>1</v>
-      </c>
-      <c r="E54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9">
+        <v>1</v>
+      </c>
       <c r="F54" s="9"/>
       <c r="G54" s="9"/>
       <c r="H54" s="13"/>
@@ -2886,26 +2873,26 @@
       <c r="K54" s="13"/>
       <c r="L54" s="13"/>
       <c r="M54" s="10">
-        <f t="shared" si="1"/>
+        <f>SUM(H54:L54)</f>
         <v>0</v>
       </c>
       <c r="N54" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="O54" s="12"/>
-    </row>
-    <row r="55" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="13">
-        <v>224</v>
+        <v>35</v>
+      </c>
+      <c r="O54" s="14"/>
+    </row>
+    <row r="55" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="9">
+        <v>326</v>
       </c>
       <c r="B55" s="9">
-        <v>2000</v>
+        <v>1400</v>
       </c>
       <c r="C55" s="9"/>
-      <c r="D55" s="9">
-        <v>1</v>
-      </c>
-      <c r="E55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9">
+        <v>1</v>
+      </c>
       <c r="F55" s="9"/>
       <c r="G55" s="9"/>
       <c r="H55" s="13"/>
@@ -2914,45 +2901,45 @@
       <c r="K55" s="13"/>
       <c r="L55" s="13"/>
       <c r="M55" s="10">
-        <f t="shared" si="1"/>
+        <f>SUM(H55:L55)</f>
         <v>0</v>
       </c>
       <c r="N55" s="16" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="O55" s="14"/>
     </row>
-    <row r="56" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="9">
-        <v>116</v>
+        <v>355</v>
       </c>
       <c r="B56" s="9">
-        <v>2300</v>
+        <v>1400</v>
       </c>
       <c r="C56" s="9"/>
-      <c r="D56" s="9">
-        <v>1</v>
-      </c>
-      <c r="E56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9">
+        <v>1</v>
+      </c>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
-      <c r="H56" s="13"/>
-      <c r="I56" s="13"/>
-      <c r="J56" s="13"/>
-      <c r="K56" s="13"/>
-      <c r="L56" s="13"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c r="L56" s="9"/>
       <c r="M56" s="10">
-        <f t="shared" si="1"/>
+        <f>SUM(H56:L56)</f>
         <v>0</v>
       </c>
       <c r="N56" s="16" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="O56" s="14"/>
     </row>
-    <row r="57" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="9">
-        <v>256</v>
+        <v>365</v>
       </c>
       <c r="B57" s="9">
         <v>1400</v>
@@ -2964,54 +2951,54 @@
       </c>
       <c r="F57" s="9"/>
       <c r="G57" s="9"/>
-      <c r="H57" s="13"/>
-      <c r="I57" s="13"/>
-      <c r="J57" s="13"/>
-      <c r="K57" s="13"/>
-      <c r="L57" s="13"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c r="L57" s="9"/>
       <c r="M57" s="10">
-        <f t="shared" si="1"/>
+        <f>SUM(H57:L57)</f>
         <v>0</v>
       </c>
       <c r="N57" s="16" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="O57" s="14"/>
     </row>
-    <row r="58" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="9">
-        <v>362</v>
+    <row r="58" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="13">
+        <v>391</v>
       </c>
       <c r="B58" s="9">
         <v>1400</v>
       </c>
-      <c r="C58" s="9"/>
-      <c r="D58" s="9"/>
+      <c r="C58" s="15"/>
+      <c r="D58" s="15"/>
       <c r="E58" s="9">
         <v>1</v>
       </c>
-      <c r="F58" s="9"/>
-      <c r="G58" s="9"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="15"/>
       <c r="H58" s="13"/>
       <c r="I58" s="13"/>
       <c r="J58" s="13"/>
       <c r="K58" s="13"/>
       <c r="L58" s="13"/>
       <c r="M58" s="10">
-        <f t="shared" si="1"/>
+        <f>SUM(H58:L58)</f>
         <v>0</v>
       </c>
       <c r="N58" s="16" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="O58" s="14"/>
     </row>
-    <row r="59" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="9">
-        <v>372</v>
+        <v>135</v>
       </c>
       <c r="B59" s="9">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="C59" s="9"/>
       <c r="D59" s="9"/>
@@ -3020,26 +3007,26 @@
       </c>
       <c r="F59" s="9"/>
       <c r="G59" s="9"/>
-      <c r="H59" s="9"/>
-      <c r="I59" s="9"/>
-      <c r="J59" s="9"/>
-      <c r="K59" s="9"/>
-      <c r="L59" s="9"/>
+      <c r="H59" s="13"/>
+      <c r="I59" s="13"/>
+      <c r="J59" s="13"/>
+      <c r="K59" s="13"/>
+      <c r="L59" s="13"/>
       <c r="M59" s="10">
-        <f t="shared" si="1"/>
+        <f>SUM(H59:L59)</f>
         <v>0</v>
       </c>
       <c r="N59" s="16" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="O59" s="14"/>
     </row>
-    <row r="60" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="9">
-        <v>373</v>
+        <v>237</v>
       </c>
       <c r="B60" s="9">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="C60" s="9"/>
       <c r="D60" s="9"/>
@@ -3048,23 +3035,23 @@
       </c>
       <c r="F60" s="9"/>
       <c r="G60" s="9"/>
-      <c r="H60" s="13"/>
-      <c r="I60" s="13"/>
-      <c r="J60" s="13"/>
-      <c r="K60" s="13"/>
-      <c r="L60" s="13"/>
+      <c r="H60" s="9"/>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c r="L60" s="9"/>
       <c r="M60" s="10">
-        <f t="shared" si="1"/>
+        <f>SUM(H60:L60)</f>
         <v>0</v>
       </c>
       <c r="N60" s="16" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="O60" s="14"/>
     </row>
-    <row r="61" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="13">
-        <v>148</v>
+    <row r="61" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="9">
+        <v>240</v>
       </c>
       <c r="B61" s="9">
         <v>1500</v>
@@ -3076,23 +3063,23 @@
       </c>
       <c r="F61" s="9"/>
       <c r="G61" s="9"/>
-      <c r="H61" s="9"/>
-      <c r="I61" s="9"/>
-      <c r="J61" s="9"/>
-      <c r="K61" s="9"/>
-      <c r="L61" s="9"/>
+      <c r="H61" s="13"/>
+      <c r="I61" s="13"/>
+      <c r="J61" s="13"/>
+      <c r="K61" s="13"/>
+      <c r="L61" s="13"/>
       <c r="M61" s="10">
-        <f t="shared" si="1"/>
+        <f>SUM(H61:L61)</f>
         <v>0</v>
       </c>
       <c r="N61" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="O61" s="14"/>
-    </row>
-    <row r="62" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="O61" s="12"/>
+    </row>
+    <row r="62" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="9">
-        <v>170</v>
+        <v>250</v>
       </c>
       <c r="B62" s="9">
         <v>1500</v>
@@ -3110,17 +3097,17 @@
       <c r="K62" s="9"/>
       <c r="L62" s="9"/>
       <c r="M62" s="10">
-        <f t="shared" si="1"/>
+        <f>SUM(H62:L62)</f>
         <v>0</v>
       </c>
       <c r="N62" s="16" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="O62" s="14"/>
     </row>
-    <row r="63" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="9">
-        <v>173</v>
+        <v>262</v>
       </c>
       <c r="B63" s="9">
         <v>1500</v>
@@ -3132,23 +3119,23 @@
       </c>
       <c r="F63" s="9"/>
       <c r="G63" s="9"/>
-      <c r="H63" s="9"/>
-      <c r="I63" s="9"/>
-      <c r="J63" s="9"/>
-      <c r="K63" s="9"/>
-      <c r="L63" s="9"/>
+      <c r="H63" s="13"/>
+      <c r="I63" s="13"/>
+      <c r="J63" s="13"/>
+      <c r="K63" s="13"/>
+      <c r="L63" s="13"/>
       <c r="M63" s="10">
-        <f t="shared" si="1"/>
+        <f>SUM(H63:L63)</f>
         <v>0</v>
       </c>
       <c r="N63" s="16" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="O63" s="14"/>
     </row>
-    <row r="64" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="9">
-        <v>199</v>
+        <v>353</v>
       </c>
       <c r="B64" s="9">
         <v>1500</v>
@@ -3166,20 +3153,20 @@
       <c r="K64" s="9"/>
       <c r="L64" s="9"/>
       <c r="M64" s="10">
-        <f t="shared" si="1"/>
+        <f>SUM(H64:L64)</f>
         <v>0</v>
       </c>
       <c r="N64" s="16" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="O64" s="14"/>
     </row>
-    <row r="65" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="9">
-        <v>208</v>
+        <v>120</v>
       </c>
       <c r="B65" s="9">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="C65" s="9"/>
       <c r="D65" s="9"/>
@@ -3188,26 +3175,26 @@
       </c>
       <c r="F65" s="9"/>
       <c r="G65" s="9"/>
-      <c r="H65" s="13"/>
-      <c r="I65" s="13"/>
-      <c r="J65" s="13"/>
-      <c r="K65" s="13"/>
-      <c r="L65" s="13"/>
+      <c r="H65" s="9"/>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c r="L65" s="9"/>
       <c r="M65" s="10">
-        <f t="shared" si="1"/>
+        <f>SUM(H65:L65)</f>
         <v>0</v>
       </c>
       <c r="N65" s="16" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="O65" s="14"/>
     </row>
-    <row r="66" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="9">
-        <v>253</v>
+    <row r="66" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="13">
+        <v>184</v>
       </c>
       <c r="B66" s="9">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="C66" s="9"/>
       <c r="D66" s="9"/>
@@ -3216,26 +3203,26 @@
       </c>
       <c r="F66" s="9"/>
       <c r="G66" s="9"/>
-      <c r="H66" s="13"/>
-      <c r="I66" s="13"/>
-      <c r="J66" s="13"/>
-      <c r="K66" s="13"/>
-      <c r="L66" s="13"/>
+      <c r="H66" s="9"/>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c r="L66" s="9"/>
       <c r="M66" s="10">
-        <f t="shared" si="1"/>
+        <f>SUM(H66:L66)</f>
         <v>0</v>
       </c>
       <c r="N66" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="O66" s="12"/>
-    </row>
-    <row r="67" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="O66" s="14"/>
+    </row>
+    <row r="67" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="9">
-        <v>293</v>
+        <v>190</v>
       </c>
       <c r="B67" s="9">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="C67" s="9"/>
       <c r="D67" s="9"/>
@@ -3250,20 +3237,20 @@
       <c r="K67" s="9"/>
       <c r="L67" s="9"/>
       <c r="M67" s="10">
-        <f t="shared" si="1"/>
+        <f>SUM(H67:L67)</f>
         <v>0</v>
       </c>
       <c r="N67" s="16" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="O67" s="14"/>
     </row>
-    <row r="68" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="9">
-        <v>336</v>
+    <row r="68" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="13">
+        <v>219</v>
       </c>
       <c r="B68" s="9">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="C68" s="9"/>
       <c r="D68" s="9"/>
@@ -3278,27 +3265,27 @@
       <c r="K68" s="13"/>
       <c r="L68" s="13"/>
       <c r="M68" s="10">
-        <f t="shared" si="1"/>
+        <f>SUM(H68:L68)</f>
         <v>0</v>
       </c>
       <c r="N68" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="O68" s="14"/>
-    </row>
-    <row r="69" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="13">
-        <v>389</v>
+        <v>49</v>
+      </c>
+      <c r="O68" s="12"/>
+    </row>
+    <row r="69" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="9">
+        <v>282</v>
       </c>
       <c r="B69" s="9">
-        <v>1500</v>
-      </c>
-      <c r="C69" s="15"/>
-      <c r="D69" s="15"/>
+        <v>1600</v>
+      </c>
+      <c r="C69" s="9"/>
+      <c r="D69" s="9"/>
       <c r="E69" s="9">
         <v>1</v>
       </c>
-      <c r="F69" s="15"/>
+      <c r="F69" s="9"/>
       <c r="G69" s="9"/>
       <c r="H69" s="13"/>
       <c r="I69" s="13"/>
@@ -3306,17 +3293,17 @@
       <c r="K69" s="13"/>
       <c r="L69" s="13"/>
       <c r="M69" s="10">
-        <f t="shared" si="1"/>
+        <f>SUM(H69:L69)</f>
         <v>0</v>
       </c>
       <c r="N69" s="16" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="O69" s="14"/>
     </row>
-    <row r="70" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="9">
-        <v>106</v>
+        <v>329</v>
       </c>
       <c r="B70" s="9">
         <v>1600</v>
@@ -3328,23 +3315,23 @@
       </c>
       <c r="F70" s="9"/>
       <c r="G70" s="9"/>
-      <c r="H70" s="9"/>
-      <c r="I70" s="9"/>
-      <c r="J70" s="9"/>
-      <c r="K70" s="9"/>
-      <c r="L70" s="9"/>
+      <c r="H70" s="13"/>
+      <c r="I70" s="13"/>
+      <c r="J70" s="13"/>
+      <c r="K70" s="13"/>
+      <c r="L70" s="13"/>
       <c r="M70" s="10">
-        <f t="shared" si="1"/>
+        <f>SUM(H70:L70)</f>
         <v>0</v>
       </c>
       <c r="N70" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="O70" s="14"/>
-    </row>
-    <row r="71" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="O70" s="12"/>
+    </row>
+    <row r="71" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="9">
-        <v>158</v>
+        <v>330</v>
       </c>
       <c r="B71" s="9">
         <v>1600</v>
@@ -3362,20 +3349,20 @@
       <c r="K71" s="13"/>
       <c r="L71" s="13"/>
       <c r="M71" s="10">
-        <f t="shared" si="1"/>
+        <f>SUM(H71:L71)</f>
         <v>0</v>
       </c>
       <c r="N71" s="16" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="O71" s="14"/>
     </row>
-    <row r="72" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="9">
-        <v>168</v>
+    <row r="72" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="13">
+        <v>172</v>
       </c>
       <c r="B72" s="9">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="C72" s="9"/>
       <c r="D72" s="9"/>
@@ -3384,26 +3371,26 @@
       </c>
       <c r="F72" s="9"/>
       <c r="G72" s="9"/>
-      <c r="H72" s="13"/>
-      <c r="I72" s="13"/>
-      <c r="J72" s="13"/>
-      <c r="K72" s="13"/>
-      <c r="L72" s="13"/>
+      <c r="H72" s="9"/>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c r="L72" s="9"/>
       <c r="M72" s="10">
-        <f t="shared" ref="M72:M116" si="2">SUM(H72:L72)</f>
+        <f>SUM(H72:L72)</f>
         <v>0</v>
       </c>
       <c r="N72" s="16" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="O72" s="14"/>
     </row>
-    <row r="73" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="9">
-        <v>335</v>
+        <v>266</v>
       </c>
       <c r="B73" s="9">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="C73" s="9"/>
       <c r="D73" s="9"/>
@@ -3418,20 +3405,20 @@
       <c r="K73" s="13"/>
       <c r="L73" s="13"/>
       <c r="M73" s="10">
-        <f t="shared" si="2"/>
+        <f>SUM(H73:L73)</f>
         <v>0</v>
       </c>
       <c r="N73" s="16" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="O73" s="14"/>
     </row>
-    <row r="74" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="9">
-        <v>114</v>
+        <v>275</v>
       </c>
       <c r="B74" s="9">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="C74" s="9"/>
       <c r="D74" s="9"/>
@@ -3440,26 +3427,26 @@
       </c>
       <c r="F74" s="9"/>
       <c r="G74" s="9"/>
-      <c r="H74" s="13"/>
-      <c r="I74" s="13"/>
-      <c r="J74" s="13"/>
-      <c r="K74" s="13"/>
-      <c r="L74" s="13"/>
+      <c r="H74" s="9"/>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c r="L74" s="9"/>
       <c r="M74" s="10">
-        <f t="shared" si="2"/>
+        <f>SUM(H74:L74)</f>
         <v>0</v>
       </c>
       <c r="N74" s="16" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="O74" s="14"/>
     </row>
-    <row r="75" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="13">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B75" s="9">
-        <v>1700</v>
+        <v>1900</v>
       </c>
       <c r="C75" s="9"/>
       <c r="D75" s="9"/>
@@ -3468,26 +3455,26 @@
       </c>
       <c r="F75" s="9"/>
       <c r="G75" s="9"/>
-      <c r="H75" s="13"/>
-      <c r="I75" s="13"/>
-      <c r="J75" s="13"/>
-      <c r="K75" s="13"/>
-      <c r="L75" s="13"/>
+      <c r="H75" s="9"/>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c r="L75" s="9"/>
       <c r="M75" s="10">
-        <f t="shared" si="2"/>
+        <f>SUM(H75:L75)</f>
         <v>0</v>
       </c>
       <c r="N75" s="16" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="O75" s="14"/>
     </row>
-    <row r="76" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="9">
-        <v>130</v>
+    <row r="76" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="13">
+        <v>195</v>
       </c>
       <c r="B76" s="9">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="C76" s="9"/>
       <c r="D76" s="9"/>
@@ -3502,20 +3489,20 @@
       <c r="K76" s="9"/>
       <c r="L76" s="9"/>
       <c r="M76" s="10">
-        <f t="shared" si="2"/>
+        <f>SUM(H76:L76)</f>
         <v>0</v>
       </c>
       <c r="N76" s="16" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="O76" s="14"/>
     </row>
-    <row r="77" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="9">
-        <v>307</v>
+        <v>113</v>
       </c>
       <c r="B77" s="9">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="C77" s="9"/>
       <c r="D77" s="9"/>
@@ -3530,20 +3517,20 @@
       <c r="K77" s="9"/>
       <c r="L77" s="9"/>
       <c r="M77" s="10">
-        <f t="shared" si="2"/>
+        <f>SUM(H77:L77)</f>
         <v>0</v>
       </c>
       <c r="N77" s="16" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="O77" s="14"/>
     </row>
-    <row r="78" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="9">
-        <v>347</v>
+        <v>198</v>
       </c>
       <c r="B78" s="9">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="C78" s="9"/>
       <c r="D78" s="9"/>
@@ -3552,26 +3539,26 @@
       </c>
       <c r="F78" s="9"/>
       <c r="G78" s="9"/>
-      <c r="H78" s="9"/>
-      <c r="I78" s="9"/>
-      <c r="J78" s="9"/>
-      <c r="K78" s="9"/>
-      <c r="L78" s="9"/>
+      <c r="H78" s="13"/>
+      <c r="I78" s="13"/>
+      <c r="J78" s="13"/>
+      <c r="K78" s="13"/>
+      <c r="L78" s="13"/>
       <c r="M78" s="10">
-        <f t="shared" si="2"/>
+        <f>SUM(H78:L78)</f>
         <v>0</v>
       </c>
       <c r="N78" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="O78" s="14"/>
-    </row>
-    <row r="79" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="O78" s="12"/>
+    </row>
+    <row r="79" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="13">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="B79" s="9">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="C79" s="9"/>
       <c r="D79" s="9"/>
@@ -3580,26 +3567,26 @@
       </c>
       <c r="F79" s="9"/>
       <c r="G79" s="9"/>
-      <c r="H79" s="9"/>
-      <c r="I79" s="9"/>
-      <c r="J79" s="9"/>
-      <c r="K79" s="9"/>
-      <c r="L79" s="9"/>
+      <c r="H79" s="13"/>
+      <c r="I79" s="13"/>
+      <c r="J79" s="13"/>
+      <c r="K79" s="13"/>
+      <c r="L79" s="13"/>
       <c r="M79" s="10">
-        <f t="shared" si="2"/>
+        <f>SUM(H79:L79)</f>
         <v>0</v>
       </c>
       <c r="N79" s="16" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="O79" s="14"/>
     </row>
-    <row r="80" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="13">
-        <v>179</v>
+    <row r="80" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="9">
+        <v>116</v>
       </c>
       <c r="B80" s="9">
-        <v>2000</v>
+        <v>2300</v>
       </c>
       <c r="C80" s="9"/>
       <c r="D80" s="9"/>
@@ -3614,15 +3601,15 @@
       <c r="K80" s="13"/>
       <c r="L80" s="13"/>
       <c r="M80" s="10">
-        <f t="shared" si="2"/>
+        <f>SUM(H80:L80)</f>
         <v>0</v>
       </c>
       <c r="N80" s="16" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="O80" s="14"/>
     </row>
-    <row r="81" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="9">
         <v>339</v>
       </c>
@@ -3642,7 +3629,7 @@
       <c r="K81" s="13"/>
       <c r="L81" s="13"/>
       <c r="M81" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N81" s="16" t="s">
@@ -3650,7 +3637,7 @@
       </c>
       <c r="O81" s="14"/>
     </row>
-    <row r="82" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="9">
         <v>351</v>
       </c>
@@ -3670,7 +3657,7 @@
       <c r="K82" s="9"/>
       <c r="L82" s="9"/>
       <c r="M82" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N82" s="16" t="s">
@@ -3678,7 +3665,7 @@
       </c>
       <c r="O82" s="14"/>
     </row>
-    <row r="83" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="9">
         <v>363</v>
       </c>
@@ -3698,7 +3685,7 @@
       <c r="K83" s="13"/>
       <c r="L83" s="13"/>
       <c r="M83" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N83" s="16" t="s">
@@ -3706,7 +3693,7 @@
       </c>
       <c r="O83" s="12"/>
     </row>
-    <row r="84" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="9">
         <v>385</v>
       </c>
@@ -3726,7 +3713,7 @@
       <c r="K84" s="13"/>
       <c r="L84" s="13"/>
       <c r="M84" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N84" s="16" t="s">
@@ -3734,7 +3721,7 @@
       </c>
       <c r="O84" s="14"/>
     </row>
-    <row r="85" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="9">
         <v>105</v>
       </c>
@@ -3754,7 +3741,7 @@
       <c r="K85" s="13"/>
       <c r="L85" s="13"/>
       <c r="M85" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N85" s="16" t="s">
@@ -3762,7 +3749,7 @@
       </c>
       <c r="O85" s="14"/>
     </row>
-    <row r="86" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="9">
         <v>112</v>
       </c>
@@ -3782,7 +3769,7 @@
       <c r="K86" s="13"/>
       <c r="L86" s="13"/>
       <c r="M86" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N86" s="16" t="s">
@@ -3790,7 +3777,7 @@
       </c>
       <c r="O86" s="12"/>
     </row>
-    <row r="87" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="9">
         <v>189</v>
       </c>
@@ -3810,7 +3797,7 @@
       <c r="K87" s="13"/>
       <c r="L87" s="13"/>
       <c r="M87" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N87" s="16" t="s">
@@ -3818,7 +3805,7 @@
       </c>
       <c r="O87" s="14"/>
     </row>
-    <row r="88" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="9">
         <v>225</v>
       </c>
@@ -3838,7 +3825,7 @@
       <c r="K88" s="13"/>
       <c r="L88" s="13"/>
       <c r="M88" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N88" s="16" t="s">
@@ -3846,7 +3833,7 @@
       </c>
       <c r="O88" s="14"/>
     </row>
-    <row r="89" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="9">
         <v>281</v>
       </c>
@@ -3866,7 +3853,7 @@
       <c r="K89" s="13"/>
       <c r="L89" s="13"/>
       <c r="M89" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N89" s="16" t="s">
@@ -3874,7 +3861,7 @@
       </c>
       <c r="O89" s="14"/>
     </row>
-    <row r="90" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="9">
         <v>290</v>
       </c>
@@ -3894,7 +3881,7 @@
       <c r="K90" s="13"/>
       <c r="L90" s="13"/>
       <c r="M90" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N90" s="16" t="s">
@@ -3902,7 +3889,7 @@
       </c>
       <c r="O90" s="12"/>
     </row>
-    <row r="91" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="9">
         <v>311</v>
       </c>
@@ -3922,7 +3909,7 @@
       <c r="K91" s="13"/>
       <c r="L91" s="13"/>
       <c r="M91" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N91" s="16" t="s">
@@ -3930,7 +3917,7 @@
       </c>
       <c r="O91" s="12"/>
     </row>
-    <row r="92" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="9">
         <v>321</v>
       </c>
@@ -3950,7 +3937,7 @@
       <c r="K92" s="13"/>
       <c r="L92" s="13"/>
       <c r="M92" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N92" s="16" t="s">
@@ -3958,7 +3945,7 @@
       </c>
       <c r="O92" s="14"/>
     </row>
-    <row r="93" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="9">
         <v>332</v>
       </c>
@@ -3978,7 +3965,7 @@
       <c r="K93" s="9"/>
       <c r="L93" s="9"/>
       <c r="M93" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N93" s="16" t="s">
@@ -3986,7 +3973,7 @@
       </c>
       <c r="O93" s="14"/>
     </row>
-    <row r="94" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="9">
         <v>354</v>
       </c>
@@ -4006,7 +3993,7 @@
       <c r="K94" s="9"/>
       <c r="L94" s="9"/>
       <c r="M94" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N94" s="16" t="s">
@@ -4014,7 +4001,7 @@
       </c>
       <c r="O94" s="14"/>
     </row>
-    <row r="95" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="9">
         <v>383</v>
       </c>
@@ -4034,7 +4021,7 @@
       <c r="K95" s="13"/>
       <c r="L95" s="13"/>
       <c r="M95" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N95" s="16" t="s">
@@ -4042,7 +4029,7 @@
       </c>
       <c r="O95" s="12"/>
     </row>
-    <row r="96" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="9">
         <v>393</v>
       </c>
@@ -4062,7 +4049,7 @@
       <c r="K96" s="9"/>
       <c r="L96" s="9"/>
       <c r="M96" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N96" s="16" t="s">
@@ -4070,7 +4057,7 @@
       </c>
       <c r="O96" s="12"/>
     </row>
-    <row r="97" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="9">
         <v>143</v>
       </c>
@@ -4090,7 +4077,7 @@
       <c r="K97" s="13"/>
       <c r="L97" s="13"/>
       <c r="M97" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N97" s="16" t="s">
@@ -4098,7 +4085,7 @@
       </c>
       <c r="O97" s="14"/>
     </row>
-    <row r="98" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="9">
         <v>203</v>
       </c>
@@ -4118,7 +4105,7 @@
       <c r="K98" s="13"/>
       <c r="L98" s="13"/>
       <c r="M98" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N98" s="16" t="s">
@@ -4126,7 +4113,7 @@
       </c>
       <c r="O98" s="14"/>
     </row>
-    <row r="99" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="13">
         <v>220</v>
       </c>
@@ -4146,7 +4133,7 @@
       <c r="K99" s="13"/>
       <c r="L99" s="13"/>
       <c r="M99" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N99" s="16" t="s">
@@ -4154,7 +4141,7 @@
       </c>
       <c r="O99" s="14"/>
     </row>
-    <row r="100" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="13">
         <v>230</v>
       </c>
@@ -4174,7 +4161,7 @@
       <c r="K100" s="13"/>
       <c r="L100" s="13"/>
       <c r="M100" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N100" s="16" t="s">
@@ -4182,7 +4169,7 @@
       </c>
       <c r="O100" s="14"/>
     </row>
-    <row r="101" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="9">
         <v>361</v>
       </c>
@@ -4202,7 +4189,7 @@
       <c r="K101" s="9"/>
       <c r="L101" s="9"/>
       <c r="M101" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N101" s="16" t="s">
@@ -4210,7 +4197,7 @@
       </c>
       <c r="O101" s="12"/>
     </row>
-    <row r="102" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="13">
         <v>399</v>
       </c>
@@ -4230,7 +4217,7 @@
       <c r="K102" s="9"/>
       <c r="L102" s="9"/>
       <c r="M102" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N102" s="16" t="s">
@@ -4238,7 +4225,7 @@
       </c>
       <c r="O102" s="14"/>
     </row>
-    <row r="103" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="9">
         <v>176</v>
       </c>
@@ -4258,7 +4245,7 @@
       <c r="K103" s="13"/>
       <c r="L103" s="13"/>
       <c r="M103" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N103" s="16" t="s">
@@ -4266,7 +4253,7 @@
       </c>
       <c r="O103" s="14"/>
     </row>
-    <row r="104" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="9">
         <v>301</v>
       </c>
@@ -4286,7 +4273,7 @@
       <c r="K104" s="13"/>
       <c r="L104" s="13"/>
       <c r="M104" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N104" s="16" t="s">
@@ -4294,7 +4281,7 @@
       </c>
       <c r="O104" s="14"/>
     </row>
-    <row r="105" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="9">
         <v>205</v>
       </c>
@@ -4314,7 +4301,7 @@
       <c r="K105" s="13"/>
       <c r="L105" s="13"/>
       <c r="M105" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N105" s="16" t="s">
@@ -4322,7 +4309,7 @@
       </c>
       <c r="O105" s="14"/>
     </row>
-    <row r="106" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="13">
         <v>229</v>
       </c>
@@ -4342,7 +4329,7 @@
       <c r="K106" s="13"/>
       <c r="L106" s="13"/>
       <c r="M106" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N106" s="16" t="s">
@@ -4350,7 +4337,7 @@
       </c>
       <c r="O106" s="14"/>
     </row>
-    <row r="107" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="9">
         <v>319</v>
       </c>
@@ -4370,7 +4357,7 @@
       <c r="K107" s="9"/>
       <c r="L107" s="9"/>
       <c r="M107" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N107" s="16" t="s">
@@ -4378,7 +4365,7 @@
       </c>
       <c r="O107" s="14"/>
     </row>
-    <row r="108" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="9">
         <v>144</v>
       </c>
@@ -4398,7 +4385,7 @@
       <c r="K108" s="13"/>
       <c r="L108" s="13"/>
       <c r="M108" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N108" s="16" t="s">
@@ -4406,7 +4393,7 @@
       </c>
       <c r="O108" s="14"/>
     </row>
-    <row r="109" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="13">
         <v>155</v>
       </c>
@@ -4426,7 +4413,7 @@
       <c r="K109" s="13"/>
       <c r="L109" s="13"/>
       <c r="M109" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N109" s="16" t="s">
@@ -4434,7 +4421,7 @@
       </c>
       <c r="O109" s="14"/>
     </row>
-    <row r="110" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="9">
         <v>283</v>
       </c>
@@ -4454,7 +4441,7 @@
       <c r="K110" s="13"/>
       <c r="L110" s="13"/>
       <c r="M110" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N110" s="16" t="s">
@@ -4462,7 +4449,7 @@
       </c>
       <c r="O110" s="14"/>
     </row>
-    <row r="111" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="9">
         <v>131</v>
       </c>
@@ -4482,7 +4469,7 @@
       <c r="K111" s="13"/>
       <c r="L111" s="13"/>
       <c r="M111" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N111" s="16" t="s">
@@ -4490,7 +4477,7 @@
       </c>
       <c r="O111" s="14"/>
     </row>
-    <row r="112" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="13">
         <v>150</v>
       </c>
@@ -4510,7 +4497,7 @@
       <c r="K112" s="13"/>
       <c r="L112" s="13"/>
       <c r="M112" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N112" s="16" t="s">
@@ -4518,7 +4505,7 @@
       </c>
       <c r="O112" s="14"/>
     </row>
-    <row r="113" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="13">
         <v>153</v>
       </c>
@@ -4538,7 +4525,7 @@
       <c r="K113" s="13"/>
       <c r="L113" s="13"/>
       <c r="M113" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N113" s="16" t="s">
@@ -4546,7 +4533,7 @@
       </c>
       <c r="O113" s="14"/>
     </row>
-    <row r="114" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="13">
         <v>278</v>
       </c>
@@ -4566,7 +4553,7 @@
       <c r="K114" s="13"/>
       <c r="L114" s="13"/>
       <c r="M114" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N114" s="16" t="s">
@@ -4574,7 +4561,7 @@
       </c>
       <c r="O114" s="14"/>
     </row>
-    <row r="115" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="13">
         <v>398</v>
       </c>
@@ -4594,7 +4581,7 @@
       <c r="K115" s="13"/>
       <c r="L115" s="13"/>
       <c r="M115" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N115" s="16" t="s">
@@ -4602,7 +4589,7 @@
       </c>
       <c r="O115" s="14"/>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B116" s="3"/>
       <c r="H116" s="13"/>
       <c r="I116" s="13"/>
@@ -4611,7 +4598,7 @@
       <c r="L116" s="13"/>
       <c r="M116" s="10"/>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B117" s="3"/>
       <c r="H117" s="9"/>
       <c r="I117" s="9"/>
@@ -4620,7 +4607,7 @@
       <c r="L117" s="9"/>
       <c r="M117" s="10"/>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B118" s="3"/>
       <c r="H118" s="13"/>
       <c r="I118" s="13"/>
@@ -4629,7 +4616,7 @@
       <c r="L118" s="13"/>
       <c r="M118" s="10"/>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B119" s="3"/>
       <c r="H119" s="13"/>
       <c r="I119" s="13"/>
@@ -4638,7 +4625,7 @@
       <c r="L119" s="13"/>
       <c r="M119" s="10"/>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B120" s="3"/>
       <c r="H120" s="13"/>
       <c r="I120" s="13"/>
@@ -4647,7 +4634,7 @@
       <c r="L120" s="13"/>
       <c r="M120" s="10"/>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B121" s="3"/>
       <c r="H121" s="13"/>
       <c r="I121" s="13"/>
@@ -4656,7 +4643,7 @@
       <c r="L121" s="13"/>
       <c r="M121" s="10"/>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B122" s="3"/>
       <c r="H122" s="13"/>
       <c r="I122" s="13"/>
@@ -4665,7 +4652,7 @@
       <c r="L122" s="13"/>
       <c r="M122" s="10"/>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B123" s="3"/>
       <c r="H123" s="13"/>
       <c r="I123" s="13"/>
@@ -4674,7 +4661,7 @@
       <c r="L123" s="13"/>
       <c r="M123" s="10"/>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B124" s="3"/>
       <c r="H124" s="13"/>
       <c r="I124" s="13"/>
@@ -4683,7 +4670,7 @@
       <c r="L124" s="13"/>
       <c r="M124" s="10"/>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B125" s="3"/>
       <c r="H125" s="13"/>
       <c r="I125" s="13"/>
@@ -4692,7 +4679,7 @@
       <c r="L125" s="13"/>
       <c r="M125" s="10"/>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B126" s="3"/>
       <c r="H126" s="13"/>
       <c r="I126" s="13"/>
@@ -4701,7 +4688,7 @@
       <c r="L126" s="13"/>
       <c r="M126" s="10"/>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B127" s="3"/>
       <c r="H127" s="13"/>
       <c r="I127" s="13"/>
@@ -4710,7 +4697,7 @@
       <c r="L127" s="13"/>
       <c r="M127" s="10"/>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B128" s="3"/>
       <c r="H128" s="13"/>
       <c r="I128" s="13"/>
@@ -4719,7 +4706,7 @@
       <c r="L128" s="13"/>
       <c r="M128" s="10"/>
     </row>
-    <row r="129" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B129" s="3"/>
       <c r="H129" s="13"/>
       <c r="I129" s="13"/>
@@ -4728,7 +4715,7 @@
       <c r="L129" s="13"/>
       <c r="M129" s="10"/>
     </row>
-    <row r="130" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B130" s="3"/>
       <c r="H130" s="13"/>
       <c r="I130" s="13"/>
@@ -4737,7 +4724,7 @@
       <c r="L130" s="13"/>
       <c r="M130" s="10"/>
     </row>
-    <row r="131" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B131" s="3"/>
       <c r="H131" s="9"/>
       <c r="I131" s="9"/>
@@ -4746,7 +4733,7 @@
       <c r="L131" s="9"/>
       <c r="M131" s="10"/>
     </row>
-    <row r="132" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B132" s="3"/>
       <c r="H132" s="13"/>
       <c r="I132" s="13"/>
@@ -4755,7 +4742,7 @@
       <c r="L132" s="13"/>
       <c r="M132" s="10"/>
     </row>
-    <row r="133" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B133" s="3"/>
       <c r="H133" s="13"/>
       <c r="I133" s="13"/>
@@ -4764,7 +4751,7 @@
       <c r="L133" s="13"/>
       <c r="M133" s="10"/>
     </row>
-    <row r="134" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B134" s="3"/>
       <c r="H134" s="13"/>
       <c r="I134" s="13"/>
@@ -4773,7 +4760,7 @@
       <c r="L134" s="13"/>
       <c r="M134" s="10"/>
     </row>
-    <row r="135" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B135" s="3"/>
       <c r="H135" s="13"/>
       <c r="I135" s="13"/>
@@ -4782,7 +4769,7 @@
       <c r="L135" s="13"/>
       <c r="M135" s="10"/>
     </row>
-    <row r="136" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B136" s="3"/>
       <c r="H136" s="13"/>
       <c r="I136" s="13"/>
@@ -4791,7 +4778,7 @@
       <c r="L136" s="13"/>
       <c r="M136" s="10"/>
     </row>
-    <row r="137" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B137" s="3"/>
       <c r="H137" s="9"/>
       <c r="I137" s="9"/>
@@ -4800,7 +4787,7 @@
       <c r="L137" s="9"/>
       <c r="M137" s="10"/>
     </row>
-    <row r="138" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B138" s="3"/>
       <c r="H138" s="13"/>
       <c r="I138" s="13"/>
@@ -4809,7 +4796,7 @@
       <c r="L138" s="13"/>
       <c r="M138" s="10"/>
     </row>
-    <row r="139" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B139" s="3"/>
       <c r="H139" s="13"/>
       <c r="I139" s="13"/>
@@ -4818,7 +4805,7 @@
       <c r="L139" s="13"/>
       <c r="M139" s="10"/>
     </row>
-    <row r="140" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B140" s="3"/>
       <c r="H140" s="9"/>
       <c r="I140" s="9"/>
@@ -4827,7 +4814,7 @@
       <c r="L140" s="9"/>
       <c r="M140" s="10"/>
     </row>
-    <row r="141" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B141" s="3"/>
       <c r="H141" s="13"/>
       <c r="I141" s="13"/>
@@ -4836,7 +4823,7 @@
       <c r="L141" s="13"/>
       <c r="M141" s="10"/>
     </row>
-    <row r="142" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B142" s="3"/>
       <c r="H142" s="13"/>
       <c r="I142" s="13"/>
@@ -4845,7 +4832,7 @@
       <c r="L142" s="13"/>
       <c r="M142" s="10"/>
     </row>
-    <row r="143" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B143" s="3"/>
       <c r="H143" s="13"/>
       <c r="I143" s="13"/>
@@ -4854,7 +4841,7 @@
       <c r="L143" s="13"/>
       <c r="M143" s="10"/>
     </row>
-    <row r="144" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B144" s="3"/>
       <c r="H144" s="9"/>
       <c r="I144" s="9"/>
@@ -4863,7 +4850,7 @@
       <c r="L144" s="9"/>
       <c r="M144" s="10"/>
     </row>
-    <row r="145" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B145" s="3"/>
       <c r="H145" s="9"/>
       <c r="I145" s="9"/>
@@ -4872,7 +4859,7 @@
       <c r="L145" s="9"/>
       <c r="M145" s="10"/>
     </row>
-    <row r="146" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B146" s="3"/>
       <c r="H146" s="13"/>
       <c r="I146" s="13"/>
@@ -4881,7 +4868,7 @@
       <c r="L146" s="13"/>
       <c r="M146" s="10"/>
     </row>
-    <row r="147" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B147" s="3"/>
       <c r="H147" s="13"/>
       <c r="I147" s="13"/>
@@ -4890,7 +4877,7 @@
       <c r="L147" s="13"/>
       <c r="M147" s="10"/>
     </row>
-    <row r="148" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B148" s="3"/>
       <c r="H148" s="13"/>
       <c r="I148" s="13"/>
@@ -4899,7 +4886,7 @@
       <c r="L148" s="13"/>
       <c r="M148" s="10"/>
     </row>
-    <row r="149" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B149" s="3"/>
       <c r="H149" s="9"/>
       <c r="I149" s="9"/>
@@ -4908,7 +4895,7 @@
       <c r="L149" s="9"/>
       <c r="M149" s="10"/>
     </row>
-    <row r="150" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B150" s="3"/>
       <c r="H150" s="9"/>
       <c r="I150" s="9"/>
@@ -4917,7 +4904,7 @@
       <c r="L150" s="9"/>
       <c r="M150" s="10"/>
     </row>
-    <row r="151" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B151" s="3"/>
       <c r="H151" s="13"/>
       <c r="I151" s="13"/>
@@ -4926,7 +4913,7 @@
       <c r="L151" s="13"/>
       <c r="M151" s="10"/>
     </row>
-    <row r="152" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B152" s="3"/>
       <c r="H152" s="13"/>
       <c r="I152" s="13"/>
@@ -4935,7 +4922,7 @@
       <c r="L152" s="13"/>
       <c r="M152" s="10"/>
     </row>
-    <row r="153" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B153" s="3"/>
       <c r="H153" s="13"/>
       <c r="I153" s="13"/>
@@ -4944,7 +4931,7 @@
       <c r="L153" s="13"/>
       <c r="M153" s="10"/>
     </row>
-    <row r="154" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B154" s="3"/>
       <c r="H154" s="13"/>
       <c r="I154" s="13"/>
@@ -4953,7 +4940,7 @@
       <c r="L154" s="13"/>
       <c r="M154" s="10"/>
     </row>
-    <row r="155" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B155" s="3"/>
       <c r="H155" s="9"/>
       <c r="I155" s="9"/>
@@ -4962,7 +4949,7 @@
       <c r="L155" s="9"/>
       <c r="M155" s="10"/>
     </row>
-    <row r="156" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B156" s="3"/>
       <c r="H156" s="13"/>
       <c r="I156" s="13"/>
@@ -4971,7 +4958,7 @@
       <c r="L156" s="13"/>
       <c r="M156" s="10"/>
     </row>
-    <row r="157" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B157" s="3"/>
       <c r="H157" s="13"/>
       <c r="I157" s="13"/>
@@ -4980,7 +4967,7 @@
       <c r="L157" s="13"/>
       <c r="M157" s="10"/>
     </row>
-    <row r="158" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B158" s="3"/>
       <c r="H158" s="13"/>
       <c r="I158" s="13"/>
@@ -4989,7 +4976,7 @@
       <c r="L158" s="13"/>
       <c r="M158" s="10"/>
     </row>
-    <row r="159" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B159" s="3"/>
       <c r="H159" s="13"/>
       <c r="I159" s="13"/>
@@ -4998,7 +4985,7 @@
       <c r="L159" s="13"/>
       <c r="M159" s="10"/>
     </row>
-    <row r="160" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B160" s="3"/>
       <c r="H160" s="13"/>
       <c r="I160" s="13"/>
@@ -5007,7 +4994,7 @@
       <c r="L160" s="13"/>
       <c r="M160" s="10"/>
     </row>
-    <row r="161" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B161" s="3"/>
       <c r="H161" s="13"/>
       <c r="I161" s="13"/>
@@ -5016,7 +5003,7 @@
       <c r="L161" s="13"/>
       <c r="M161" s="10"/>
     </row>
-    <row r="162" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B162" s="3"/>
       <c r="H162" s="13"/>
       <c r="I162" s="13"/>
@@ -5025,7 +5012,7 @@
       <c r="L162" s="13"/>
       <c r="M162" s="10"/>
     </row>
-    <row r="163" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B163" s="3"/>
       <c r="H163" s="13"/>
       <c r="I163" s="13"/>
@@ -5034,7 +5021,7 @@
       <c r="L163" s="13"/>
       <c r="M163" s="10"/>
     </row>
-    <row r="164" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B164" s="3"/>
       <c r="H164" s="13"/>
       <c r="I164" s="13"/>
@@ -5043,7 +5030,7 @@
       <c r="L164" s="13"/>
       <c r="M164" s="10"/>
     </row>
-    <row r="165" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B165" s="3"/>
       <c r="H165" s="13"/>
       <c r="I165" s="13"/>
@@ -5052,7 +5039,7 @@
       <c r="L165" s="13"/>
       <c r="M165" s="10"/>
     </row>
-    <row r="166" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B166" s="3"/>
       <c r="H166" s="13"/>
       <c r="I166" s="13"/>
@@ -5061,7 +5048,7 @@
       <c r="L166" s="13"/>
       <c r="M166" s="10"/>
     </row>
-    <row r="167" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B167" s="3"/>
       <c r="H167" s="13"/>
       <c r="I167" s="13"/>
@@ -5070,7 +5057,7 @@
       <c r="L167" s="13"/>
       <c r="M167" s="10"/>
     </row>
-    <row r="168" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B168" s="3"/>
       <c r="H168" s="13"/>
       <c r="I168" s="13"/>
@@ -5079,7 +5066,7 @@
       <c r="L168" s="13"/>
       <c r="M168" s="10"/>
     </row>
-    <row r="169" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B169" s="3"/>
       <c r="H169" s="13"/>
       <c r="I169" s="13"/>
@@ -5088,7 +5075,7 @@
       <c r="L169" s="13"/>
       <c r="M169" s="10"/>
     </row>
-    <row r="170" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B170" s="3"/>
       <c r="H170" s="13"/>
       <c r="I170" s="13"/>
@@ -5097,7 +5084,7 @@
       <c r="L170" s="13"/>
       <c r="M170" s="10"/>
     </row>
-    <row r="171" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B171" s="3"/>
       <c r="H171" s="13"/>
       <c r="I171" s="13"/>
@@ -5106,7 +5093,7 @@
       <c r="L171" s="13"/>
       <c r="M171" s="10"/>
     </row>
-    <row r="172" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B172" s="3"/>
       <c r="H172" s="13"/>
       <c r="I172" s="13"/>
@@ -5115,7 +5102,7 @@
       <c r="L172" s="13"/>
       <c r="M172" s="10"/>
     </row>
-    <row r="173" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B173" s="3"/>
       <c r="H173" s="13"/>
       <c r="I173" s="13"/>
@@ -5124,7 +5111,7 @@
       <c r="L173" s="13"/>
       <c r="M173" s="10"/>
     </row>
-    <row r="174" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B174" s="3"/>
       <c r="H174" s="13"/>
       <c r="I174" s="13"/>
@@ -5133,7 +5120,7 @@
       <c r="L174" s="13"/>
       <c r="M174" s="10"/>
     </row>
-    <row r="175" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B175" s="3"/>
       <c r="H175" s="13"/>
       <c r="I175" s="13"/>
@@ -5142,7 +5129,7 @@
       <c r="L175" s="13"/>
       <c r="M175" s="10"/>
     </row>
-    <row r="176" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B176" s="3"/>
       <c r="H176" s="13"/>
       <c r="I176" s="13"/>
@@ -5151,137 +5138,136 @@
       <c r="L176" s="13"/>
       <c r="M176" s="10"/>
     </row>
-    <row r="177" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B177" s="3"/>
     </row>
-    <row r="178" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B178" s="3"/>
     </row>
-    <row r="179" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B179" s="3"/>
     </row>
-    <row r="180" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B180" s="3"/>
     </row>
-    <row r="181" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B181" s="3"/>
     </row>
-    <row r="182" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B182" s="3"/>
     </row>
-    <row r="183" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B183" s="3"/>
     </row>
-    <row r="184" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B184" s="3"/>
     </row>
-    <row r="185" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B185" s="3"/>
     </row>
-    <row r="186" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B186" s="3"/>
     </row>
-    <row r="187" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B187" s="3"/>
     </row>
-    <row r="188" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B188" s="3"/>
     </row>
-    <row r="189" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B189" s="3"/>
     </row>
-    <row r="190" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B190" s="3"/>
     </row>
-    <row r="191" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B191" s="3"/>
     </row>
-    <row r="192" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B192" s="3"/>
     </row>
-    <row r="193" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B193" s="3"/>
     </row>
-    <row r="194" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B194" s="3"/>
     </row>
-    <row r="195" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B195" s="3"/>
     </row>
-    <row r="196" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B196" s="3"/>
     </row>
-    <row r="197" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B197" s="3"/>
     </row>
-    <row r="198" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B198" s="3"/>
     </row>
-    <row r="199" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B199" s="3"/>
     </row>
-    <row r="200" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B200" s="3"/>
     </row>
-    <row r="201" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B201" s="3"/>
     </row>
-    <row r="202" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B202" s="3"/>
     </row>
-    <row r="203" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B203" s="3"/>
     </row>
-    <row r="204" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B204" s="3"/>
     </row>
-    <row r="205" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B205" s="3"/>
     </row>
-    <row r="206" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B206" s="3"/>
     </row>
-    <row r="207" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B207" s="3"/>
     </row>
-    <row r="208" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B208" s="3"/>
     </row>
-    <row r="209" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B209" s="3"/>
     </row>
-    <row r="210" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B210" s="3"/>
     </row>
-    <row r="211" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B211" s="3"/>
     </row>
-    <row r="212" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B212" s="3"/>
     </row>
-    <row r="213" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B213" s="3"/>
     </row>
-    <row r="214" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B214" s="3"/>
     </row>
-    <row r="215" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B215" s="3"/>
     </row>
-    <row r="216" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B216" s="3"/>
     </row>
-    <row r="217" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B217" s="3"/>
     </row>
-    <row r="218" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B218" s="3"/>
     </row>
   </sheetData>
-  <sortState ref="A4:J303">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:J303">
     <sortCondition descending="1" ref="C4:C303"/>
     <sortCondition descending="1" ref="D4:D303"/>
-    <sortCondition descending="1" ref="E4:E303"/>
     <sortCondition descending="1" ref="F4:F303"/>
     <sortCondition descending="1" ref="G4:G303"/>
     <sortCondition ref="B4:B303"/>
@@ -5292,8 +5278,8 @@
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="C1:C2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
@@ -5303,33 +5289,23 @@
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="G1:G2"/>
   </mergeCells>
-  <conditionalFormatting sqref="A4:A14 N4:N115 B4:B115">
-    <cfRule type="cellIs" dxfId="49" priority="109" operator="equal">
+  <conditionalFormatting sqref="B28:B51 B81:B115 A4:B27 A28:A45 A52:B80 N4:N115">
+    <cfRule type="cellIs" dxfId="47" priority="109" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A116:A1048576">
-    <cfRule type="cellIs" dxfId="48" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="97" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A79:A115">
-    <cfRule type="cellIs" dxfId="47" priority="57" operator="equal">
+  <conditionalFormatting sqref="A50:A115">
+    <cfRule type="cellIs" dxfId="45" priority="57" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1">
-    <cfRule type="cellIs" dxfId="46" priority="56" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A15:A74">
-    <cfRule type="cellIs" dxfId="45" priority="51" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N15:N74">
-    <cfRule type="cellIs" dxfId="44" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="56" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5343,37 +5319,37 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A75:A78">
+  <conditionalFormatting sqref="A46:A49">
     <cfRule type="cellIs" dxfId="41" priority="42" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N75">
+  <conditionalFormatting sqref="N46">
     <cfRule type="cellIs" dxfId="40" priority="41" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N76">
+  <conditionalFormatting sqref="N47">
     <cfRule type="cellIs" dxfId="39" priority="40" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N77">
+  <conditionalFormatting sqref="N48">
     <cfRule type="cellIs" dxfId="38" priority="39" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N78">
+  <conditionalFormatting sqref="N49">
     <cfRule type="cellIs" dxfId="37" priority="38" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N79">
+  <conditionalFormatting sqref="N50">
     <cfRule type="cellIs" dxfId="36" priority="37" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N80">
+  <conditionalFormatting sqref="N51:N80">
     <cfRule type="cellIs" dxfId="35" priority="36" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -5554,118 +5530,118 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="N26" r:id="rId1"/>
-    <hyperlink ref="N29" r:id="rId2"/>
-    <hyperlink ref="N4" r:id="rId3"/>
-    <hyperlink ref="N5" r:id="rId4"/>
-    <hyperlink ref="N67" r:id="rId5"/>
-    <hyperlink ref="N14" r:id="rId6"/>
-    <hyperlink ref="N58" r:id="rId7"/>
-    <hyperlink ref="N63" r:id="rId8"/>
-    <hyperlink ref="N86" r:id="rId9"/>
-    <hyperlink ref="N43" r:id="rId10"/>
-    <hyperlink ref="N16" r:id="rId11"/>
-    <hyperlink ref="N81" r:id="rId12"/>
-    <hyperlink ref="N20" r:id="rId13"/>
-    <hyperlink ref="N94" r:id="rId14"/>
-    <hyperlink ref="N107" r:id="rId15"/>
-    <hyperlink ref="N15" r:id="rId16"/>
-    <hyperlink ref="N110" r:id="rId17"/>
-    <hyperlink ref="N68" r:id="rId18"/>
-    <hyperlink ref="N93" r:id="rId19"/>
-    <hyperlink ref="N13" r:id="rId20"/>
-    <hyperlink ref="N45" r:id="rId21"/>
-    <hyperlink ref="N12" r:id="rId22"/>
-    <hyperlink ref="N104" r:id="rId23"/>
-    <hyperlink ref="N10" r:id="rId24"/>
-    <hyperlink ref="N38" r:id="rId25"/>
-    <hyperlink ref="N101" r:id="rId26"/>
-    <hyperlink ref="N23" r:id="rId27"/>
-    <hyperlink ref="N87" r:id="rId28"/>
-    <hyperlink ref="N17" r:id="rId29"/>
-    <hyperlink ref="N84" r:id="rId30"/>
-    <hyperlink ref="N78" r:id="rId31"/>
-    <hyperlink ref="N108" r:id="rId32"/>
-    <hyperlink ref="N37" r:id="rId33"/>
-    <hyperlink ref="N96" r:id="rId34"/>
-    <hyperlink ref="N9" r:id="rId35"/>
-    <hyperlink ref="N105" r:id="rId36"/>
-    <hyperlink ref="N66" r:id="rId37"/>
-    <hyperlink ref="N82" r:id="rId38"/>
-    <hyperlink ref="N7" r:id="rId39"/>
-    <hyperlink ref="N27" r:id="rId40"/>
-    <hyperlink ref="N35" r:id="rId41"/>
-    <hyperlink ref="N47" r:id="rId42"/>
-    <hyperlink ref="N50" r:id="rId43"/>
-    <hyperlink ref="N72" r:id="rId44"/>
-    <hyperlink ref="N11" r:id="rId45"/>
-    <hyperlink ref="N73" r:id="rId46"/>
-    <hyperlink ref="N76" r:id="rId47"/>
-    <hyperlink ref="N54" r:id="rId48"/>
-    <hyperlink ref="N92" r:id="rId49"/>
-    <hyperlink ref="N88" r:id="rId50"/>
-    <hyperlink ref="N25" r:id="rId51"/>
-    <hyperlink ref="N97" r:id="rId52"/>
-    <hyperlink ref="N111" r:id="rId53"/>
-    <hyperlink ref="N64" r:id="rId54"/>
-    <hyperlink ref="N103" r:id="rId55"/>
-    <hyperlink ref="N22" r:id="rId56"/>
-    <hyperlink ref="N49" r:id="rId57"/>
-    <hyperlink ref="N36" r:id="rId58"/>
-    <hyperlink ref="N85" r:id="rId59"/>
-    <hyperlink ref="N41" r:id="rId60"/>
-    <hyperlink ref="N46" r:id="rId61"/>
-    <hyperlink ref="N98" r:id="rId62"/>
-    <hyperlink ref="N65" r:id="rId63"/>
-    <hyperlink ref="N77" r:id="rId64"/>
-    <hyperlink ref="N62" r:id="rId65"/>
-    <hyperlink ref="N71" r:id="rId66"/>
-    <hyperlink ref="N28" r:id="rId67"/>
-    <hyperlink ref="N30" r:id="rId68"/>
-    <hyperlink ref="N31" r:id="rId69"/>
-    <hyperlink ref="N6" r:id="rId70"/>
-    <hyperlink ref="N59" r:id="rId71"/>
-    <hyperlink ref="N57" r:id="rId72"/>
-    <hyperlink ref="N19" r:id="rId73"/>
-    <hyperlink ref="N21" r:id="rId74"/>
-    <hyperlink ref="N60" r:id="rId75"/>
-    <hyperlink ref="N39" r:id="rId76"/>
-    <hyperlink ref="N90" r:id="rId77"/>
-    <hyperlink ref="N95" r:id="rId78"/>
-    <hyperlink ref="N32" r:id="rId79"/>
-    <hyperlink ref="N83" r:id="rId80"/>
-    <hyperlink ref="N40" r:id="rId81"/>
-    <hyperlink ref="N91" r:id="rId82"/>
-    <hyperlink ref="N89" r:id="rId83"/>
-    <hyperlink ref="N18" r:id="rId84"/>
-    <hyperlink ref="N33" r:id="rId85"/>
-    <hyperlink ref="N70" r:id="rId86"/>
-    <hyperlink ref="N53" r:id="rId87"/>
-    <hyperlink ref="N74" r:id="rId88"/>
-    <hyperlink ref="N56" r:id="rId89"/>
-    <hyperlink ref="N51" r:id="rId90"/>
-    <hyperlink ref="N24" r:id="rId91"/>
-    <hyperlink ref="N75" r:id="rId92"/>
-    <hyperlink ref="N8" r:id="rId93"/>
-    <hyperlink ref="N61" r:id="rId94"/>
-    <hyperlink ref="N112" r:id="rId95"/>
-    <hyperlink ref="N48" r:id="rId96"/>
-    <hyperlink ref="N80" r:id="rId97"/>
-    <hyperlink ref="N113" r:id="rId98"/>
-    <hyperlink ref="N109" r:id="rId99"/>
-    <hyperlink ref="N42" r:id="rId100"/>
-    <hyperlink ref="N52" r:id="rId101"/>
-    <hyperlink ref="N55" r:id="rId102"/>
-    <hyperlink ref="N44" r:id="rId103"/>
-    <hyperlink ref="N99" r:id="rId104"/>
-    <hyperlink ref="N106" r:id="rId105"/>
-    <hyperlink ref="N100" r:id="rId106"/>
-    <hyperlink ref="N79" r:id="rId107"/>
-    <hyperlink ref="N114" r:id="rId108"/>
-    <hyperlink ref="N69" r:id="rId109"/>
-    <hyperlink ref="N34" r:id="rId110"/>
-    <hyperlink ref="N115" r:id="rId111"/>
-    <hyperlink ref="N102" r:id="rId112"/>
+    <hyperlink ref="N26" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="N53" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="N4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="N5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="N38" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="N14" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="N29" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="N34" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="N86" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="N67" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="N16" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="N81" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="N20" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="N94" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="N107" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="N15" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="N110" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="N39" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="N93" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="N13" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="N69" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="N12" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="N104" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="N10" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="N62" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="N101" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="N23" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="N87" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="N17" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="N84" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="N49" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="N108" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="N61" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="N96" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="N9" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="N105" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="N37" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="N82" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="N7" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="N27" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="N59" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="N71" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="N74" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="N43" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="N11" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="N44" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="N47" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="N78" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="N92" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="N88" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="N25" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="N97" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="N111" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="N35" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="N103" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="N22" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="N73" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="N60" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="N85" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="N65" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="N70" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="N98" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="N36" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="N48" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="N33" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="N42" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="N52" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="N54" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="N55" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="N6" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="N30" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="N28" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="N19" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="N21" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="N31" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="N63" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="N90" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="N95" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="N56" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="N83" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="N64" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="N91" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="N89" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="N18" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="N57" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="N41" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="N77" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="N45" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="N80" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="N75" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="N24" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="N46" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="N8" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="N32" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="N112" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="N72" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="N51" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="N113" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="N109" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="N66" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="N76" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="N79" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="N68" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="N99" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="N106" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="N100" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="N50" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="N114" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="N40" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="N58" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="N115" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="N102" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId113"/>

--- a/level-2/codeforces-phase-2-3/codeforces-phase-2-3.xlsx
+++ b/level-2/codeforces-phase-2-3/codeforces-phase-2-3.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{255BD0F2-28B0-4314-92F3-194E5E83F948}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82FE1B06-5087-4370-B7C5-585072AC6F95}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
   <si>
     <t xml:space="preserve">Round Number </t>
   </si>
@@ -55,18 +55,6 @@
     <t>http://codeforces.com/problemset/problem/711/B</t>
   </si>
   <si>
-    <t>http://codeforces.com/problemset/problem/224/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/237/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/300/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/332/B</t>
-  </si>
-  <si>
     <t>http://codeforces.com/problemset/problem/334/B</t>
   </si>
   <si>
@@ -79,45 +67,15 @@
     <t>http://codeforces.com/problemset/problem/445/B</t>
   </si>
   <si>
-    <t>http://codeforces.com/problemset/problem/490/B</t>
-  </si>
-  <si>
     <t>http://codeforces.com/problemset/problem/505/B</t>
   </si>
   <si>
-    <t>http://codeforces.com/problemset/problem/527/B</t>
-  </si>
-  <si>
     <t>http://codeforces.com/problemset/problem/525/B</t>
   </si>
   <si>
     <t>http://codeforces.com/problemset/problem/550/B</t>
   </si>
   <si>
-    <t>http://codeforces.com/problemset/problem/574/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/584/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/225/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/615/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/216/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/294/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/349/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/140/B</t>
-  </si>
-  <si>
     <t>http://codeforces.com/problemset/problem/520/B</t>
   </si>
   <si>
@@ -142,141 +100,21 @@
     <t>http://codeforces.com/problemset/problem/219/B</t>
   </si>
   <si>
-    <t>http://codeforces.com/problemset/problem/404/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/415/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/437/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/460/B</t>
-  </si>
-  <si>
     <t>http://codeforces.com/problemset/problem/675/B</t>
   </si>
   <si>
-    <t>http://codeforces.com/problemset/problem/190/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/305/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/322/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/373/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/495/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/593/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/595/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/281/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/466/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/483/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/199/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/336/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/166/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/340/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/382/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/180/B</t>
-  </si>
-  <si>
     <t>http://codeforces.com/problemset/problem/448/B</t>
   </si>
   <si>
     <t>http://codeforces.com/problemset/problem/697/B</t>
   </si>
   <si>
-    <t>http://codeforces.com/problemset/problem/716/B</t>
-  </si>
-  <si>
     <t>http://codeforces.com/problemset/problem/719/B</t>
   </si>
   <si>
-    <t>http://codeforces.com/problemset/problem/239/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/278/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/282/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/342/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/358/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/443/B</t>
-  </si>
-  <si>
     <t>http://codeforces.com/problemset/problem/518/B</t>
   </si>
   <si>
-    <t>http://codeforces.com/problemset/problem/608/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/752/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/149/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/260/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/275/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/606/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/168/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/202/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/208/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/551/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/664/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/399/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/296/B</t>
-  </si>
-  <si>
     <t>http://codeforces.com/problemset/problem/614/B</t>
   </si>
   <si>
@@ -289,99 +127,12 @@
     <t>http://codeforces.com/problemset/problem/745/B</t>
   </si>
   <si>
-    <t>http://codeforces.com/problemset/problem/148/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/165/B</t>
-  </si>
-  <si>
     <t>http://codeforces.com/problemset/problem/233/B</t>
   </si>
   <si>
-    <t>http://codeforces.com/problemset/problem/254/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/320/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/384/B</t>
-  </si>
-  <si>
     <t>http://codeforces.com/problemset/problem/493/B</t>
   </si>
   <si>
-    <t>http://codeforces.com/problemset/problem/496/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/510/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/557/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/580/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/599/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/676/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/742/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/760/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/214/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/231/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/244/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/350/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/374/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/393/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/689/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/768/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/252/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/287/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/540/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/353/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/390/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/488/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/577/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/767/B</t>
-  </si>
-  <si>
     <t>brute force</t>
   </si>
   <si>
@@ -401,6 +152,240 @@
   </si>
   <si>
     <t>Learning Time in (min)</t>
+  </si>
+  <si>
+    <t>http://codeforces.com/problemset/problem/621/B</t>
+  </si>
+  <si>
+    <t>http://codeforces.com/problemset/problem/707/B</t>
+  </si>
+  <si>
+    <t>http://codeforces.com/problemset/problem/471/B</t>
+  </si>
+  <si>
+    <t>http://codeforces.com/problemset/problem/486/B</t>
+  </si>
+  <si>
+    <t>http://codeforces.com/problemset/problem/515/B</t>
+  </si>
+  <si>
+    <t>http://codeforces.com/problemset/problem/572/B</t>
+  </si>
+  <si>
+    <t>http://codeforces.com/problemset/problem/579/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/932/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/810/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/777/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/862/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/982/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/27/B</t>
+  </si>
+  <si>
+    <t>http://codeforces.com/problemset/problem/289/B</t>
+  </si>
+  <si>
+    <t>http://codeforces.com/problemset/problem/479/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/799/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/816/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/907/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/79/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/8/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/60/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/940/B</t>
+  </si>
+  <si>
+    <t>http://codeforces.com/problemset/problem/228/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/26/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/955/B</t>
+  </si>
+  <si>
+    <t>http://codeforces.com/problemset/problem/996/B</t>
+  </si>
+  <si>
+    <t>http://codeforces.com/problemset/problem/964/B</t>
+  </si>
+  <si>
+    <t>http://codeforces.com/problemset/problem/912/B</t>
+  </si>
+  <si>
+    <t>http://codeforces.com/problemset/problem/900/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/71/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/821/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/876/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/820/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/96/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/94/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/1004/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/909/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/787/B</t>
+  </si>
+  <si>
+    <t>http://codeforces.com/problemset/problem/141/B</t>
+  </si>
+  <si>
+    <t>http://codeforces.com/problemset/problem/197/B</t>
+  </si>
+  <si>
+    <t>http://codeforces.com/problemset/problem/248/B</t>
+  </si>
+  <si>
+    <t>http://codeforces.com/problemset/problem/272/B</t>
+  </si>
+  <si>
+    <t>http://codeforces.com/problemset/problem/337/B</t>
+  </si>
+  <si>
+    <t>http://codeforces.com/problemset/problem/359/B</t>
+  </si>
+  <si>
+    <t>http://codeforces.com/problemset/problem/507/B</t>
+  </si>
+  <si>
+    <t>http://codeforces.com/problemset/problem/514/B</t>
+  </si>
+  <si>
+    <t>http://codeforces.com/problemset/problem/851/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/867/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/108/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/868/B</t>
+  </si>
+  <si>
+    <t>http://codeforces.com/problemset/problem/586/B</t>
+  </si>
+  <si>
+    <t>http://codeforces.com/problemset/problem/610/B</t>
+  </si>
+  <si>
+    <t>http://codeforces.com/problemset/problem/617/B</t>
+  </si>
+  <si>
+    <t>http://codeforces.com/problemset/problem/152/B</t>
+  </si>
+  <si>
+    <t>http://codeforces.com/problemset/problem/558/B</t>
+  </si>
+  <si>
+    <t>http://codeforces.com/problemset/problem/796/B</t>
+  </si>
+  <si>
+    <t>http://codeforces.com/problemset/problem/92/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/1003/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/84/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/814/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/58/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/56/B</t>
+  </si>
+  <si>
+    <t>http://codeforces.com/problemset/problem/175/B</t>
+  </si>
+  <si>
+    <t>http://codeforces.com/problemset/problem/253/B</t>
+  </si>
+  <si>
+    <t>http://codeforces.com/problemset/problem/270/B</t>
+  </si>
+  <si>
+    <t>http://codeforces.com/problemset/problem/357/B</t>
+  </si>
+  <si>
+    <t>http://codeforces.com/problemset/problem/441/B</t>
+  </si>
+  <si>
+    <t>http://codeforces.com/problemset/problem/544/B</t>
+  </si>
+  <si>
+    <t>http://codeforces.com/problemset/problem/604/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/994/B</t>
+  </si>
+  <si>
+    <t>http://codeforces.com/problemset/problem/205/B</t>
+  </si>
+  <si>
+    <t>http://codeforces.com/problemset/problem/279/B</t>
+  </si>
+  <si>
+    <t>http://codeforces.com/problemset/problem/402/B</t>
+  </si>
+  <si>
+    <t>http://codeforces.com/problemset/problem/430/B</t>
+  </si>
+  <si>
+    <t>http://codeforces.com/problemset/problem/548/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/937/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/124/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/41/B</t>
   </si>
 </sst>
 </file>
@@ -651,14 +636,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="48">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="47">
     <dxf>
       <fill>
         <patternFill>
@@ -1298,25 +1276,25 @@
         <v>7</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>120</v>
+        <v>37</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>121</v>
+        <v>38</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>122</v>
+        <v>39</v>
       </c>
       <c r="I1" s="18" t="s">
-        <v>123</v>
+        <v>40</v>
       </c>
       <c r="J1" s="18" t="s">
-        <v>125</v>
+        <v>42</v>
       </c>
       <c r="K1" s="18" t="s">
-        <v>126</v>
+        <v>43</v>
       </c>
       <c r="L1" s="18" t="s">
-        <v>124</v>
+        <v>41</v>
       </c>
       <c r="M1" s="16" t="s">
         <v>2</v>
@@ -1347,23 +1325,23 @@
       <c r="A3" s="21"/>
       <c r="B3" s="5">
         <f>SUM(B4:B806)</f>
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C3" s="5">
         <f>SUM(C4:C806)</f>
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="D3" s="5">
         <f>SUM(D4:D806)</f>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E3" s="5">
         <f>SUM(E4:E806)</f>
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F3" s="5">
         <f>SUM(F4:F806)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G3" s="6" t="e">
         <f t="shared" ref="G3:L3" si="0">AVERAGE(G4:G176)</f>
@@ -1391,7 +1369,7 @@
       </c>
       <c r="M3" s="5">
         <f>COUNTA(M4:M806)</f>
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="N3" s="6">
         <f>COUNTA(N4:N810)</f>
@@ -1400,7 +1378,7 @@
     </row>
     <row r="4" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="B4" s="7">
         <v>1</v>
@@ -1419,13 +1397,13 @@
         <v>0</v>
       </c>
       <c r="M4" s="14" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="N4" s="10"/>
     </row>
     <row r="5" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
-        <v>346</v>
+        <v>368</v>
       </c>
       <c r="B5" s="7">
         <v>1</v>
@@ -1444,13 +1422,13 @@
         <v>0</v>
       </c>
       <c r="M5" s="14" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="N5" s="10"/>
     </row>
     <row r="6" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
-        <v>369</v>
+        <v>269</v>
       </c>
       <c r="B6" s="7">
         <v>1</v>
@@ -1469,13 +1447,13 @@
         <v>0</v>
       </c>
       <c r="M6" s="14" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="N6" s="12"/>
     </row>
     <row r="7" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
-        <v>138</v>
+        <v>277</v>
       </c>
       <c r="B7" s="7">
         <v>1</v>
@@ -1494,13 +1472,13 @@
         <v>0</v>
       </c>
       <c r="M7" s="14" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="N7" s="10"/>
     </row>
     <row r="8" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11">
-        <v>147</v>
+        <v>292</v>
       </c>
       <c r="B8" s="7">
         <v>1</v>
@@ -1519,13 +1497,13 @@
         <v>0</v>
       </c>
       <c r="M8" s="14" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="N8" s="12"/>
     </row>
     <row r="9" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
-        <v>181</v>
+        <v>317</v>
       </c>
       <c r="B9" s="7">
         <v>1</v>
@@ -1544,13 +1522,13 @@
         <v>0</v>
       </c>
       <c r="M9" s="14" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="N9" s="10"/>
     </row>
     <row r="10" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
-        <v>193</v>
+        <v>320</v>
       </c>
       <c r="B10" s="7">
         <v>1</v>
@@ -1569,13 +1547,13 @@
         <v>0</v>
       </c>
       <c r="M10" s="14" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="N10" s="12"/>
     </row>
     <row r="11" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
-        <v>194</v>
+        <v>346</v>
       </c>
       <c r="B11" s="7">
         <v>1</v>
@@ -1594,13 +1572,13 @@
         <v>0</v>
       </c>
       <c r="M11" s="14" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="N11" s="10"/>
     </row>
     <row r="12" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
-        <v>216</v>
+        <v>463</v>
       </c>
       <c r="B12" s="7">
         <v>1</v>
@@ -1619,13 +1597,13 @@
         <v>0</v>
       </c>
       <c r="M12" s="14" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="N12" s="12"/>
     </row>
     <row r="13" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
-        <v>249</v>
+        <v>415</v>
       </c>
       <c r="B13" s="7">
         <v>1</v>
@@ -1644,13 +1622,13 @@
         <v>0</v>
       </c>
       <c r="M13" s="14" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="N13" s="10"/>
     </row>
     <row r="14" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
-        <v>254</v>
+        <v>401</v>
       </c>
       <c r="B14" s="7">
         <v>1</v>
@@ -1669,13 +1647,13 @@
         <v>0</v>
       </c>
       <c r="M14" s="14" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="N14" s="12"/>
     </row>
     <row r="15" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
-        <v>279</v>
+        <v>435</v>
       </c>
       <c r="B15" s="7">
         <v>1</v>
@@ -1694,13 +1672,13 @@
         <v>0</v>
       </c>
       <c r="M15" s="14" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="N15" s="12"/>
     </row>
     <row r="16" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
-        <v>286</v>
+        <v>484</v>
       </c>
       <c r="B16" s="7">
         <v>1</v>
@@ -1719,13 +1697,13 @@
         <v>0</v>
       </c>
       <c r="M16" s="14" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="N16" s="12"/>
     </row>
     <row r="17" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
-        <v>296</v>
+        <v>27</v>
       </c>
       <c r="B17" s="7">
         <v>1</v>
@@ -1744,13 +1722,13 @@
         <v>0</v>
       </c>
       <c r="M17" s="14" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="N17" s="12"/>
     </row>
     <row r="18" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
-        <v>297</v>
+        <v>177</v>
       </c>
       <c r="B18" s="7">
         <v>1</v>
@@ -1769,13 +1747,13 @@
         <v>0</v>
       </c>
       <c r="M18" s="14" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="N18" s="12"/>
     </row>
     <row r="19" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
-        <v>306</v>
+        <v>274</v>
       </c>
       <c r="B19" s="7">
         <v>1</v>
@@ -1794,13 +1772,13 @@
         <v>0</v>
       </c>
       <c r="M19" s="14" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="N19" s="12"/>
     </row>
     <row r="20" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7">
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="B20" s="7">
         <v>1</v>
@@ -1819,13 +1797,13 @@
         <v>0</v>
       </c>
       <c r="M20" s="14" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="N20" s="12"/>
     </row>
     <row r="21" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7">
-        <v>324</v>
+        <v>369</v>
       </c>
       <c r="B21" s="7">
         <v>1</v>
@@ -1844,13 +1822,13 @@
         <v>0</v>
       </c>
       <c r="M21" s="14" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="N21" s="12"/>
     </row>
     <row r="22" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7">
-        <v>139</v>
+        <v>194</v>
       </c>
       <c r="B22" s="7">
         <v>1</v>
@@ -1869,13 +1847,13 @@
         <v>0</v>
       </c>
       <c r="M22" s="14" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="N22" s="12"/>
     </row>
     <row r="23" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7">
-        <v>338</v>
+        <v>216</v>
       </c>
       <c r="B23" s="7">
         <v>1</v>
@@ -1894,13 +1872,13 @@
         <v>0</v>
       </c>
       <c r="M23" s="14" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="N23" s="10"/>
     </row>
     <row r="24" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="11">
-        <v>133</v>
+        <v>249</v>
       </c>
       <c r="B24" s="7">
         <v>1</v>
@@ -1919,13 +1897,13 @@
         <v>0</v>
       </c>
       <c r="M24" s="14" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="N24" s="12"/>
     </row>
     <row r="25" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7">
-        <v>178</v>
+        <v>254</v>
       </c>
       <c r="B25" s="7">
         <v>1</v>
@@ -1944,13 +1922,13 @@
         <v>0</v>
       </c>
       <c r="M25" s="14" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="N25" s="10"/>
     </row>
     <row r="26" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7">
-        <v>202</v>
+        <v>286</v>
       </c>
       <c r="B26" s="7">
         <v>1</v>
@@ -1969,13 +1947,13 @@
         <v>0</v>
       </c>
       <c r="M26" s="14" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N26" s="12"/>
     </row>
     <row r="27" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7">
-        <v>100</v>
+        <v>297</v>
       </c>
       <c r="B27" s="7">
         <v>1</v>
@@ -1994,18 +1972,18 @@
         <v>0</v>
       </c>
       <c r="M27" s="14" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="N27" s="12"/>
     </row>
     <row r="28" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7">
-        <v>256</v>
-      </c>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7">
-        <v>1</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="B28" s="7">
+        <v>1</v>
+      </c>
+      <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
@@ -2019,18 +1997,18 @@
         <v>0</v>
       </c>
       <c r="M28" s="14" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="N28" s="12"/>
     </row>
     <row r="29" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7">
-        <v>362</v>
-      </c>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7">
-        <v>1</v>
-      </c>
+        <v>413</v>
+      </c>
+      <c r="B29" s="7">
+        <v>1</v>
+      </c>
+      <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
@@ -2044,18 +2022,18 @@
         <v>0</v>
       </c>
       <c r="M29" s="14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="N29" s="12"/>
     </row>
     <row r="30" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7">
-        <v>372</v>
-      </c>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7">
-        <v>1</v>
-      </c>
+        <v>419</v>
+      </c>
+      <c r="B30" s="7">
+        <v>1</v>
+      </c>
+      <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
@@ -2069,18 +2047,18 @@
         <v>0</v>
       </c>
       <c r="M30" s="14" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="N30" s="12"/>
     </row>
     <row r="31" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7">
-        <v>373</v>
-      </c>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7">
-        <v>1</v>
-      </c>
+        <v>454</v>
+      </c>
+      <c r="B31" s="7">
+        <v>1</v>
+      </c>
+      <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
@@ -2094,18 +2072,18 @@
         <v>0</v>
       </c>
       <c r="M31" s="14" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="N31" s="12"/>
     </row>
     <row r="32" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="11">
-        <v>148</v>
-      </c>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7">
-        <v>1</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="B32" s="7">
+        <v>1</v>
+      </c>
+      <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
@@ -2119,18 +2097,18 @@
         <v>0</v>
       </c>
       <c r="M32" s="14" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="N32" s="12"/>
     </row>
     <row r="33" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="7">
-        <v>170</v>
-      </c>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7">
-        <v>1</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="B33" s="7">
+        <v>1</v>
+      </c>
+      <c r="C33" s="7"/>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
@@ -2144,18 +2122,18 @@
         <v>0</v>
       </c>
       <c r="M33" s="14" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="N33" s="12"/>
     </row>
     <row r="34" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="7">
-        <v>173</v>
-      </c>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7">
-        <v>1</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="B34" s="7">
+        <v>1</v>
+      </c>
+      <c r="C34" s="7"/>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
@@ -2169,18 +2147,18 @@
         <v>0</v>
       </c>
       <c r="M34" s="14" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="N34" s="12"/>
     </row>
     <row r="35" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="7">
-        <v>199</v>
-      </c>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7">
-        <v>1</v>
-      </c>
+        <v>466</v>
+      </c>
+      <c r="B35" s="7">
+        <v>1</v>
+      </c>
+      <c r="C35" s="7"/>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
@@ -2194,13 +2172,13 @@
         <v>0</v>
       </c>
       <c r="M35" s="14" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="N35" s="12"/>
     </row>
     <row r="36" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="7">
-        <v>208</v>
+        <v>141</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="7">
@@ -2219,13 +2197,13 @@
         <v>0</v>
       </c>
       <c r="M36" s="14" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N36" s="12"/>
     </row>
     <row r="37" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="7">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B37" s="7"/>
       <c r="C37" s="7">
@@ -2244,13 +2222,13 @@
         <v>0</v>
       </c>
       <c r="M37" s="14" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="N37" s="10"/>
     </row>
     <row r="38" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="7">
-        <v>293</v>
+        <v>362</v>
       </c>
       <c r="B38" s="7"/>
       <c r="C38" s="7">
@@ -2269,13 +2247,13 @@
         <v>0</v>
       </c>
       <c r="M38" s="14" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="N38" s="12"/>
     </row>
     <row r="39" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="7">
-        <v>336</v>
+        <v>373</v>
       </c>
       <c r="B39" s="7"/>
       <c r="C39" s="7">
@@ -2294,13 +2272,13 @@
         <v>0</v>
       </c>
       <c r="M39" s="14" t="s">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="N39" s="12"/>
     </row>
     <row r="40" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="11">
-        <v>389</v>
+        <v>293</v>
       </c>
       <c r="B40" s="13"/>
       <c r="C40" s="7">
@@ -2319,13 +2297,13 @@
         <v>0</v>
       </c>
       <c r="M40" s="14" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="N40" s="12"/>
     </row>
     <row r="41" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="7">
-        <v>106</v>
+        <v>26</v>
       </c>
       <c r="B41" s="7"/>
       <c r="C41" s="7">
@@ -2344,13 +2322,13 @@
         <v>0</v>
       </c>
       <c r="M41" s="14" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="N41" s="12"/>
     </row>
     <row r="42" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="7">
-        <v>158</v>
+        <v>471</v>
       </c>
       <c r="B42" s="7"/>
       <c r="C42" s="7">
@@ -2369,19 +2347,19 @@
         <v>0</v>
       </c>
       <c r="M42" s="14" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="N42" s="12"/>
     </row>
     <row r="43" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="7">
-        <v>168</v>
+        <v>326</v>
       </c>
       <c r="B43" s="7"/>
-      <c r="C43" s="7">
-        <v>1</v>
-      </c>
-      <c r="D43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7">
+        <v>1</v>
+      </c>
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
       <c r="G43" s="11"/>
@@ -2394,19 +2372,19 @@
         <v>0</v>
       </c>
       <c r="M43" s="14" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="N43" s="12"/>
     </row>
     <row r="44" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="7">
-        <v>335</v>
+        <v>492</v>
       </c>
       <c r="B44" s="7"/>
-      <c r="C44" s="7">
-        <v>1</v>
-      </c>
-      <c r="D44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7">
+        <v>1</v>
+      </c>
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
       <c r="G44" s="11"/>
@@ -2419,19 +2397,19 @@
         <v>0</v>
       </c>
       <c r="M44" s="14" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="N44" s="12"/>
     </row>
     <row r="45" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="7">
-        <v>114</v>
+        <v>475</v>
       </c>
       <c r="B45" s="7"/>
-      <c r="C45" s="7">
-        <v>1</v>
-      </c>
-      <c r="D45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7">
+        <v>1</v>
+      </c>
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
       <c r="G45" s="11"/>
@@ -2444,19 +2422,19 @@
         <v>0</v>
       </c>
       <c r="M45" s="14" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="N45" s="12"/>
     </row>
     <row r="46" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="11">
-        <v>127</v>
+        <v>456</v>
       </c>
       <c r="B46" s="7"/>
-      <c r="C46" s="7">
-        <v>1</v>
-      </c>
-      <c r="D46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7">
+        <v>1</v>
+      </c>
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
       <c r="G46" s="11"/>
@@ -2469,19 +2447,19 @@
         <v>0</v>
       </c>
       <c r="M46" s="14" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="N46" s="12"/>
     </row>
     <row r="47" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="7">
-        <v>130</v>
+        <v>450</v>
       </c>
       <c r="B47" s="7"/>
-      <c r="C47" s="7">
-        <v>1</v>
-      </c>
-      <c r="D47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7">
+        <v>1</v>
+      </c>
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
@@ -2494,19 +2472,19 @@
         <v>0</v>
       </c>
       <c r="M47" s="14" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="N47" s="12"/>
     </row>
     <row r="48" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="7">
-        <v>307</v>
+        <v>65</v>
       </c>
       <c r="B48" s="7"/>
-      <c r="C48" s="7">
-        <v>1</v>
-      </c>
-      <c r="D48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7">
+        <v>1</v>
+      </c>
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
@@ -2519,19 +2497,19 @@
         <v>0</v>
       </c>
       <c r="M48" s="14" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="N48" s="12"/>
     </row>
     <row r="49" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="7">
-        <v>347</v>
+        <v>420</v>
       </c>
       <c r="B49" s="7"/>
-      <c r="C49" s="7">
-        <v>1</v>
-      </c>
-      <c r="D49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7">
+        <v>1</v>
+      </c>
       <c r="E49" s="7"/>
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
@@ -2544,19 +2522,19 @@
         <v>0</v>
       </c>
       <c r="M49" s="14" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="N49" s="12"/>
     </row>
     <row r="50" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="11">
-        <v>233</v>
+        <v>441</v>
       </c>
       <c r="B50" s="7"/>
-      <c r="C50" s="7">
-        <v>1</v>
-      </c>
-      <c r="D50" s="7"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7">
+        <v>1</v>
+      </c>
       <c r="E50" s="7"/>
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
@@ -2569,19 +2547,19 @@
         <v>0</v>
       </c>
       <c r="M50" s="14" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="N50" s="12"/>
     </row>
     <row r="51" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="11">
-        <v>179</v>
+        <v>421</v>
       </c>
       <c r="B51" s="7"/>
-      <c r="C51" s="7">
-        <v>1</v>
-      </c>
-      <c r="D51" s="7"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7">
+        <v>1</v>
+      </c>
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
       <c r="G51" s="11"/>
@@ -2594,13 +2572,13 @@
         <v>0</v>
       </c>
       <c r="M51" s="14" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="N51" s="12"/>
     </row>
     <row r="52" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="7">
-        <v>295</v>
+        <v>77</v>
       </c>
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
@@ -2619,13 +2597,13 @@
         <v>0</v>
       </c>
       <c r="M52" s="14" t="s">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="N52" s="12"/>
     </row>
     <row r="53" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="7">
-        <v>298</v>
+        <v>76</v>
       </c>
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
@@ -2644,13 +2622,13 @@
         <v>0</v>
       </c>
       <c r="M53" s="14" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="N53" s="12"/>
     </row>
     <row r="54" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="7">
-        <v>300</v>
+        <v>495</v>
       </c>
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
@@ -2669,13 +2647,13 @@
         <v>0</v>
       </c>
       <c r="M54" s="14" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="N54" s="12"/>
     </row>
     <row r="55" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="7">
-        <v>326</v>
+        <v>455</v>
       </c>
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
@@ -2694,13 +2672,13 @@
         <v>0</v>
       </c>
       <c r="M55" s="14" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="N55" s="12"/>
     </row>
     <row r="56" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="7">
-        <v>355</v>
+        <v>406</v>
       </c>
       <c r="B56" s="7"/>
       <c r="C56" s="7"/>
@@ -2719,13 +2697,13 @@
         <v>0</v>
       </c>
       <c r="M56" s="14" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="N56" s="12"/>
     </row>
     <row r="57" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="7">
-        <v>365</v>
+        <v>101</v>
       </c>
       <c r="B57" s="7"/>
       <c r="C57" s="7"/>
@@ -2744,13 +2722,13 @@
         <v>0</v>
       </c>
       <c r="M57" s="14" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="N57" s="12"/>
     </row>
     <row r="58" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="11">
-        <v>391</v>
+        <v>124</v>
       </c>
       <c r="B58" s="13"/>
       <c r="C58" s="13"/>
@@ -2769,13 +2747,13 @@
         <v>0</v>
       </c>
       <c r="M58" s="14" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="N58" s="12"/>
     </row>
     <row r="59" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="7">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="B59" s="7"/>
       <c r="C59" s="7"/>
@@ -2794,13 +2772,13 @@
         <v>0</v>
       </c>
       <c r="M59" s="14" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="N59" s="12"/>
     </row>
     <row r="60" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="7">
-        <v>237</v>
+        <v>167</v>
       </c>
       <c r="B60" s="7"/>
       <c r="C60" s="7"/>
@@ -2819,13 +2797,13 @@
         <v>0</v>
       </c>
       <c r="M60" s="14" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="N60" s="12"/>
     </row>
     <row r="61" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="7">
-        <v>240</v>
+        <v>196</v>
       </c>
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
@@ -2844,13 +2822,13 @@
         <v>0</v>
       </c>
       <c r="M61" s="14" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="N61" s="10"/>
     </row>
     <row r="62" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="7">
-        <v>250</v>
+        <v>209</v>
       </c>
       <c r="B62" s="7"/>
       <c r="C62" s="7"/>
@@ -2869,13 +2847,13 @@
         <v>0</v>
       </c>
       <c r="M62" s="14" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="N62" s="12"/>
     </row>
     <row r="63" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="7">
-        <v>262</v>
+        <v>287</v>
       </c>
       <c r="B63" s="7"/>
       <c r="C63" s="7"/>
@@ -2894,13 +2872,13 @@
         <v>0</v>
       </c>
       <c r="M63" s="14" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="N63" s="12"/>
     </row>
     <row r="64" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="7">
-        <v>353</v>
+        <v>291</v>
       </c>
       <c r="B64" s="7"/>
       <c r="C64" s="7"/>
@@ -2919,13 +2897,13 @@
         <v>0</v>
       </c>
       <c r="M64" s="14" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="N64" s="12"/>
     </row>
     <row r="65" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="7">
-        <v>120</v>
+        <v>295</v>
       </c>
       <c r="B65" s="7"/>
       <c r="C65" s="7"/>
@@ -2944,13 +2922,13 @@
         <v>0</v>
       </c>
       <c r="M65" s="14" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="N65" s="12"/>
     </row>
     <row r="66" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="11">
-        <v>184</v>
+        <v>298</v>
       </c>
       <c r="B66" s="7"/>
       <c r="C66" s="7"/>
@@ -2969,13 +2947,13 @@
         <v>0</v>
       </c>
       <c r="M66" s="14" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="N66" s="12"/>
     </row>
     <row r="67" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="7">
-        <v>190</v>
+        <v>300</v>
       </c>
       <c r="B67" s="7"/>
       <c r="C67" s="7"/>
@@ -2994,13 +2972,13 @@
         <v>0</v>
       </c>
       <c r="M67" s="14" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="N67" s="12"/>
     </row>
     <row r="68" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="11">
-        <v>219</v>
+        <v>355</v>
       </c>
       <c r="B68" s="7"/>
       <c r="C68" s="7"/>
@@ -3019,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="M68" s="14" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="N68" s="10"/>
     </row>
     <row r="69" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="7">
-        <v>282</v>
+        <v>365</v>
       </c>
       <c r="B69" s="7"/>
       <c r="C69" s="7"/>
@@ -3044,13 +3022,13 @@
         <v>0</v>
       </c>
       <c r="M69" s="14" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="N69" s="12"/>
     </row>
     <row r="70" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="7">
-        <v>329</v>
+        <v>391</v>
       </c>
       <c r="B70" s="7"/>
       <c r="C70" s="7"/>
@@ -3069,13 +3047,13 @@
         <v>0</v>
       </c>
       <c r="M70" s="14" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="N70" s="10"/>
     </row>
     <row r="71" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="7">
-        <v>330</v>
+        <v>135</v>
       </c>
       <c r="B71" s="7"/>
       <c r="C71" s="7"/>
@@ -3094,13 +3072,13 @@
         <v>0</v>
       </c>
       <c r="M71" s="14" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="N71" s="12"/>
     </row>
     <row r="72" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="11">
-        <v>172</v>
+        <v>353</v>
       </c>
       <c r="B72" s="7"/>
       <c r="C72" s="7"/>
@@ -3119,13 +3097,13 @@
         <v>0</v>
       </c>
       <c r="M72" s="14" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="N72" s="12"/>
     </row>
     <row r="73" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="7">
-        <v>266</v>
+        <v>432</v>
       </c>
       <c r="B73" s="7"/>
       <c r="C73" s="7"/>
@@ -3144,13 +3122,13 @@
         <v>0</v>
       </c>
       <c r="M73" s="14" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="N73" s="12"/>
     </row>
     <row r="74" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="7">
-        <v>275</v>
+        <v>437</v>
       </c>
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
@@ -3169,13 +3147,13 @@
         <v>0</v>
       </c>
       <c r="M74" s="14" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="N74" s="12"/>
     </row>
     <row r="75" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="11">
-        <v>125</v>
+        <v>83</v>
       </c>
       <c r="B75" s="7"/>
       <c r="C75" s="7"/>
@@ -3194,13 +3172,13 @@
         <v>0</v>
       </c>
       <c r="M75" s="14" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="N75" s="12"/>
     </row>
     <row r="76" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="11">
-        <v>195</v>
+        <v>438</v>
       </c>
       <c r="B76" s="7"/>
       <c r="C76" s="7"/>
@@ -3219,20 +3197,20 @@
         <v>0</v>
       </c>
       <c r="M76" s="14" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="N76" s="12"/>
     </row>
     <row r="77" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="7">
-        <v>113</v>
+        <v>325</v>
       </c>
       <c r="B77" s="7"/>
       <c r="C77" s="7"/>
-      <c r="D77" s="7">
-        <v>1</v>
-      </c>
-      <c r="E77" s="7"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7">
+        <v>1</v>
+      </c>
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c r="H77" s="7"/>
@@ -3244,20 +3222,20 @@
         <v>0</v>
       </c>
       <c r="M77" s="14" t="s">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="N77" s="12"/>
     </row>
     <row r="78" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="7">
-        <v>198</v>
+        <v>337</v>
       </c>
       <c r="B78" s="7"/>
       <c r="C78" s="7"/>
-      <c r="D78" s="7">
-        <v>1</v>
-      </c>
-      <c r="E78" s="7"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="7">
+        <v>1</v>
+      </c>
       <c r="F78" s="7"/>
       <c r="G78" s="11"/>
       <c r="H78" s="11"/>
@@ -3269,20 +3247,20 @@
         <v>0</v>
       </c>
       <c r="M78" s="14" t="s">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="N78" s="10"/>
     </row>
     <row r="79" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="11">
-        <v>224</v>
+        <v>340</v>
       </c>
       <c r="B79" s="7"/>
       <c r="C79" s="7"/>
-      <c r="D79" s="7">
-        <v>1</v>
-      </c>
-      <c r="E79" s="7"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7">
+        <v>1</v>
+      </c>
       <c r="F79" s="7"/>
       <c r="G79" s="11"/>
       <c r="H79" s="11"/>
@@ -3294,20 +3272,20 @@
         <v>0</v>
       </c>
       <c r="M79" s="14" t="s">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="N79" s="12"/>
     </row>
     <row r="80" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="7">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B80" s="7"/>
       <c r="C80" s="7"/>
-      <c r="D80" s="7">
-        <v>1</v>
-      </c>
-      <c r="E80" s="7"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="7">
+        <v>1</v>
+      </c>
       <c r="F80" s="7"/>
       <c r="G80" s="11"/>
       <c r="H80" s="11"/>
@@ -3319,13 +3297,13 @@
         <v>0</v>
       </c>
       <c r="M80" s="14" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="N80" s="12"/>
     </row>
     <row r="81" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="7">
-        <v>339</v>
+        <v>312</v>
       </c>
       <c r="B81" s="7"/>
       <c r="C81" s="7"/>
@@ -3344,7 +3322,7 @@
         <v>0</v>
       </c>
       <c r="M81" s="14" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="N81" s="12"/>
     </row>
@@ -3369,13 +3347,13 @@
         <v>0</v>
       </c>
       <c r="M82" s="14" t="s">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="N82" s="12"/>
     </row>
     <row r="83" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="7">
-        <v>363</v>
+        <v>408</v>
       </c>
       <c r="B83" s="7"/>
       <c r="C83" s="7"/>
@@ -3394,13 +3372,13 @@
         <v>0</v>
       </c>
       <c r="M83" s="14" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="N83" s="10"/>
     </row>
     <row r="84" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="7">
-        <v>385</v>
+        <v>75</v>
       </c>
       <c r="B84" s="7"/>
       <c r="C84" s="7"/>
@@ -3419,13 +3397,13 @@
         <v>0</v>
       </c>
       <c r="M84" s="14" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="N84" s="12"/>
     </row>
     <row r="85" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="7">
-        <v>105</v>
+        <v>494</v>
       </c>
       <c r="B85" s="7"/>
       <c r="C85" s="7"/>
@@ -3444,13 +3422,13 @@
         <v>0</v>
       </c>
       <c r="M85" s="14" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="N85" s="12"/>
     </row>
     <row r="86" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="7">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="B86" s="7"/>
       <c r="C86" s="7"/>
@@ -3469,13 +3447,13 @@
         <v>0</v>
       </c>
       <c r="M86" s="14" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="N86" s="10"/>
     </row>
     <row r="87" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="7">
-        <v>189</v>
+        <v>418</v>
       </c>
       <c r="B87" s="7"/>
       <c r="C87" s="7"/>
@@ -3494,13 +3472,13 @@
         <v>0</v>
       </c>
       <c r="M87" s="14" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="N87" s="12"/>
     </row>
     <row r="88" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="7">
-        <v>225</v>
+        <v>54</v>
       </c>
       <c r="B88" s="7"/>
       <c r="C88" s="7"/>
@@ -3519,13 +3497,13 @@
         <v>0</v>
       </c>
       <c r="M88" s="14" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="N88" s="12"/>
     </row>
     <row r="89" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="7">
-        <v>281</v>
+        <v>52</v>
       </c>
       <c r="B89" s="7"/>
       <c r="C89" s="7"/>
@@ -3544,13 +3522,13 @@
         <v>0</v>
       </c>
       <c r="M89" s="14" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="N89" s="12"/>
     </row>
     <row r="90" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="7">
-        <v>290</v>
+        <v>115</v>
       </c>
       <c r="B90" s="7"/>
       <c r="C90" s="7"/>
@@ -3569,13 +3547,13 @@
         <v>0</v>
       </c>
       <c r="M90" s="14" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="N90" s="10"/>
     </row>
     <row r="91" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="7">
-        <v>311</v>
+        <v>154</v>
       </c>
       <c r="B91" s="7"/>
       <c r="C91" s="7"/>
@@ -3594,13 +3572,13 @@
         <v>0</v>
       </c>
       <c r="M91" s="14" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="N91" s="10"/>
     </row>
     <row r="92" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="7">
-        <v>321</v>
+        <v>165</v>
       </c>
       <c r="B92" s="7"/>
       <c r="C92" s="7"/>
@@ -3619,13 +3597,13 @@
         <v>0</v>
       </c>
       <c r="M92" s="14" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="N92" s="12"/>
     </row>
     <row r="93" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="7">
-        <v>332</v>
+        <v>207</v>
       </c>
       <c r="B93" s="7"/>
       <c r="C93" s="7"/>
@@ -3644,13 +3622,13 @@
         <v>0</v>
       </c>
       <c r="M93" s="14" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="N93" s="12"/>
     </row>
     <row r="94" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="7">
-        <v>354</v>
+        <v>252</v>
       </c>
       <c r="B94" s="7"/>
       <c r="C94" s="7"/>
@@ -3669,13 +3647,13 @@
         <v>0</v>
       </c>
       <c r="M94" s="14" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="N94" s="12"/>
     </row>
     <row r="95" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="7">
-        <v>383</v>
+        <v>302</v>
       </c>
       <c r="B95" s="7"/>
       <c r="C95" s="7"/>
@@ -3694,13 +3672,13 @@
         <v>0</v>
       </c>
       <c r="M95" s="14" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="N95" s="10"/>
     </row>
     <row r="96" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="7">
-        <v>393</v>
+        <v>334</v>
       </c>
       <c r="B96" s="7"/>
       <c r="C96" s="7"/>
@@ -3719,13 +3697,13 @@
         <v>0</v>
       </c>
       <c r="M96" s="14" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="N96" s="10"/>
     </row>
     <row r="97" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="7">
-        <v>143</v>
+        <v>339</v>
       </c>
       <c r="B97" s="7"/>
       <c r="C97" s="7"/>
@@ -3744,13 +3722,13 @@
         <v>0</v>
       </c>
       <c r="M97" s="14" t="s">
-        <v>105</v>
+        <v>31</v>
       </c>
       <c r="N97" s="12"/>
     </row>
     <row r="98" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="7">
-        <v>203</v>
+        <v>363</v>
       </c>
       <c r="B98" s="7"/>
       <c r="C98" s="7"/>
@@ -3769,13 +3747,13 @@
         <v>0</v>
       </c>
       <c r="M98" s="14" t="s">
-        <v>107</v>
+        <v>33</v>
       </c>
       <c r="N98" s="12"/>
     </row>
     <row r="99" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="11">
-        <v>220</v>
+        <v>385</v>
       </c>
       <c r="B99" s="7"/>
       <c r="C99" s="7"/>
@@ -3794,13 +3772,13 @@
         <v>0</v>
       </c>
       <c r="M99" s="14" t="s">
-        <v>108</v>
+        <v>34</v>
       </c>
       <c r="N99" s="12"/>
     </row>
     <row r="100" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="11">
-        <v>230</v>
+        <v>281</v>
       </c>
       <c r="B100" s="7"/>
       <c r="C100" s="7"/>
@@ -3819,13 +3797,13 @@
         <v>0</v>
       </c>
       <c r="M100" s="14" t="s">
-        <v>109</v>
+        <v>36</v>
       </c>
       <c r="N100" s="12"/>
     </row>
     <row r="101" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="7">
-        <v>361</v>
+        <v>488</v>
       </c>
       <c r="B101" s="7"/>
       <c r="C101" s="7"/>
@@ -3844,21 +3822,21 @@
         <v>0</v>
       </c>
       <c r="M101" s="14" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="N101" s="10"/>
     </row>
     <row r="102" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="11">
-        <v>399</v>
+        <v>129</v>
       </c>
       <c r="B102" s="13"/>
       <c r="C102" s="13"/>
       <c r="D102" s="13"/>
-      <c r="E102" s="7">
-        <v>1</v>
-      </c>
-      <c r="F102" s="13"/>
+      <c r="E102" s="7"/>
+      <c r="F102" s="7">
+        <v>1</v>
+      </c>
       <c r="G102" s="7"/>
       <c r="H102" s="7"/>
       <c r="I102" s="7"/>
@@ -3869,21 +3847,21 @@
         <v>0</v>
       </c>
       <c r="M102" s="14" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="N102" s="12"/>
     </row>
     <row r="103" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="7">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B103" s="7"/>
       <c r="C103" s="7"/>
       <c r="D103" s="7"/>
-      <c r="E103" s="7">
-        <v>1</v>
-      </c>
-      <c r="F103" s="7"/>
+      <c r="E103" s="7"/>
+      <c r="F103" s="7">
+        <v>1</v>
+      </c>
       <c r="G103" s="11"/>
       <c r="H103" s="11"/>
       <c r="I103" s="11"/>
@@ -3894,21 +3872,21 @@
         <v>0</v>
       </c>
       <c r="M103" s="14" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="N103" s="12"/>
     </row>
     <row r="104" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="7">
-        <v>301</v>
+        <v>236</v>
       </c>
       <c r="B104" s="7"/>
       <c r="C104" s="7"/>
       <c r="D104" s="7"/>
-      <c r="E104" s="7">
-        <v>1</v>
-      </c>
-      <c r="F104" s="7"/>
+      <c r="E104" s="7"/>
+      <c r="F104" s="7">
+        <v>1</v>
+      </c>
       <c r="G104" s="11"/>
       <c r="H104" s="11"/>
       <c r="I104" s="11"/>
@@ -3919,21 +3897,21 @@
         <v>0</v>
       </c>
       <c r="M104" s="14" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="N104" s="12"/>
     </row>
     <row r="105" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="7">
-        <v>205</v>
+        <v>245</v>
       </c>
       <c r="B105" s="7"/>
       <c r="C105" s="7"/>
       <c r="D105" s="7"/>
-      <c r="E105" s="7">
-        <v>1</v>
-      </c>
-      <c r="F105" s="7"/>
+      <c r="E105" s="7"/>
+      <c r="F105" s="7">
+        <v>1</v>
+      </c>
       <c r="G105" s="11"/>
       <c r="H105" s="11"/>
       <c r="I105" s="11"/>
@@ -3944,21 +3922,21 @@
         <v>0</v>
       </c>
       <c r="M105" s="14" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="N105" s="12"/>
     </row>
     <row r="106" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="11">
-        <v>229</v>
+        <v>305</v>
       </c>
       <c r="B106" s="7"/>
       <c r="C106" s="7"/>
       <c r="D106" s="7"/>
-      <c r="E106" s="7">
-        <v>1</v>
-      </c>
-      <c r="F106" s="7"/>
+      <c r="E106" s="7"/>
+      <c r="F106" s="7">
+        <v>1</v>
+      </c>
       <c r="G106" s="11"/>
       <c r="H106" s="11"/>
       <c r="I106" s="11"/>
@@ -3969,21 +3947,21 @@
         <v>0</v>
       </c>
       <c r="M106" s="14" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="N106" s="12"/>
     </row>
     <row r="107" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="7">
-        <v>319</v>
+        <v>144</v>
       </c>
       <c r="B107" s="7"/>
       <c r="C107" s="7"/>
       <c r="D107" s="7"/>
-      <c r="E107" s="7">
-        <v>1</v>
-      </c>
-      <c r="F107" s="7"/>
+      <c r="E107" s="7"/>
+      <c r="F107" s="7">
+        <v>1</v>
+      </c>
       <c r="G107" s="7"/>
       <c r="H107" s="7"/>
       <c r="I107" s="7"/>
@@ -3994,13 +3972,13 @@
         <v>0</v>
       </c>
       <c r="M107" s="14" t="s">
-        <v>118</v>
+        <v>35</v>
       </c>
       <c r="N107" s="12"/>
     </row>
     <row r="108" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="7">
-        <v>144</v>
+        <v>467</v>
       </c>
       <c r="B108" s="7"/>
       <c r="C108" s="7"/>
@@ -4019,13 +3997,13 @@
         <v>0</v>
       </c>
       <c r="M108" s="14" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="N108" s="12"/>
     </row>
     <row r="109" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="11">
-        <v>155</v>
+        <v>92</v>
       </c>
       <c r="B109" s="7"/>
       <c r="C109" s="7"/>
@@ -4044,13 +4022,13 @@
         <v>0</v>
       </c>
       <c r="M109" s="14" t="s">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="N109" s="12"/>
     </row>
     <row r="110" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="7">
-        <v>283</v>
+        <v>40</v>
       </c>
       <c r="B110" s="7"/>
       <c r="C110" s="7"/>
@@ -4069,133 +4047,88 @@
         <v>0</v>
       </c>
       <c r="M110" s="14" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="N110" s="12"/>
     </row>
     <row r="111" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="7">
-        <v>131</v>
-      </c>
+      <c r="A111" s="7"/>
       <c r="B111" s="7"/>
       <c r="C111" s="7"/>
       <c r="D111" s="7"/>
       <c r="E111" s="7"/>
-      <c r="F111" s="7">
-        <v>1</v>
-      </c>
+      <c r="F111" s="7"/>
       <c r="G111" s="11"/>
       <c r="H111" s="11"/>
       <c r="I111" s="11"/>
       <c r="J111" s="11"/>
       <c r="K111" s="11"/>
-      <c r="L111" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M111" s="14" t="s">
-        <v>104</v>
-      </c>
+      <c r="L111" s="8"/>
+      <c r="M111" s="14"/>
       <c r="N111" s="12"/>
     </row>
     <row r="112" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="11">
-        <v>150</v>
-      </c>
+      <c r="A112" s="11"/>
       <c r="B112" s="7"/>
       <c r="C112" s="7"/>
       <c r="D112" s="7"/>
       <c r="E112" s="7"/>
-      <c r="F112" s="7">
-        <v>1</v>
-      </c>
+      <c r="F112" s="7"/>
       <c r="G112" s="11"/>
       <c r="H112" s="11"/>
       <c r="I112" s="11"/>
       <c r="J112" s="11"/>
       <c r="K112" s="11"/>
-      <c r="L112" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M112" s="14" t="s">
-        <v>106</v>
-      </c>
+      <c r="L112" s="8"/>
+      <c r="M112" s="14"/>
       <c r="N112" s="12"/>
     </row>
     <row r="113" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="11">
-        <v>153</v>
-      </c>
+      <c r="A113" s="11"/>
       <c r="B113" s="7"/>
       <c r="C113" s="7"/>
       <c r="D113" s="7"/>
       <c r="E113" s="7"/>
-      <c r="F113" s="7">
-        <v>1</v>
-      </c>
+      <c r="F113" s="7"/>
       <c r="G113" s="11"/>
       <c r="H113" s="11"/>
       <c r="I113" s="11"/>
       <c r="J113" s="11"/>
       <c r="K113" s="11"/>
-      <c r="L113" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M113" s="14" t="s">
-        <v>112</v>
-      </c>
+      <c r="L113" s="8"/>
+      <c r="M113" s="14"/>
       <c r="N113" s="12"/>
     </row>
     <row r="114" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="11">
-        <v>278</v>
-      </c>
+      <c r="A114" s="11"/>
       <c r="B114" s="7"/>
       <c r="C114" s="7"/>
       <c r="D114" s="7"/>
       <c r="E114" s="7"/>
-      <c r="F114" s="7">
-        <v>1</v>
-      </c>
+      <c r="F114" s="7"/>
       <c r="G114" s="11"/>
       <c r="H114" s="11"/>
       <c r="I114" s="11"/>
       <c r="J114" s="11"/>
       <c r="K114" s="11"/>
-      <c r="L114" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M114" s="14" t="s">
-        <v>117</v>
-      </c>
+      <c r="L114" s="8"/>
+      <c r="M114" s="14"/>
       <c r="N114" s="12"/>
     </row>
     <row r="115" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="11">
-        <v>398</v>
-      </c>
+      <c r="A115" s="11"/>
       <c r="B115" s="13"/>
       <c r="C115" s="13"/>
       <c r="D115" s="13"/>
       <c r="E115" s="7"/>
-      <c r="F115" s="7">
-        <v>1</v>
-      </c>
+      <c r="F115" s="7"/>
       <c r="G115" s="11"/>
       <c r="H115" s="11"/>
       <c r="I115" s="11"/>
       <c r="J115" s="11"/>
       <c r="K115" s="11"/>
-      <c r="L115" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M115" s="14" t="s">
-        <v>119</v>
-      </c>
+      <c r="L115" s="8"/>
+      <c r="M115" s="14"/>
       <c r="N115" s="12"/>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.3">
@@ -4710,27 +4643,27 @@
     <mergeCell ref="F1:F2"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:A45 A52:A80 M4:M115">
-    <cfRule type="cellIs" dxfId="47" priority="109" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="109" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A116:A1048576">
-    <cfRule type="cellIs" dxfId="46" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="97" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50:A115">
-    <cfRule type="cellIs" dxfId="45" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="57" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1">
-    <cfRule type="cellIs" dxfId="44" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="56" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="cellIs" dxfId="43" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="45" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4945,120 +4878,118 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="M26" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="M53" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="M4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="M5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="M38" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="M14" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="M29" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="M34" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="M86" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="M67" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="M16" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="M81" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="M20" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="M94" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="M107" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="M15" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="M110" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="M39" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="M93" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="M13" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="M69" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="M12" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="M104" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="M10" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="M62" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="M101" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="M23" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="M87" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="M17" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="M84" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="M49" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="M108" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="M61" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="M96" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="M9" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="M105" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="M37" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="M26" r:id="rId1" display="http://codeforces.com/problemset/problem/349/B" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="M53" r:id="rId2" display="http://codeforces.com/problemset/problem/534/B" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="M4" r:id="rId3" display="http://codeforces.com/problemset/problem/602/B" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="M5" r:id="rId4" display="http://codeforces.com/problemset/problem/659/B" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="M38" r:id="rId5" display="http://codeforces.com/problemset/problem/518/B" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="M14" r:id="rId6" display="http://codeforces.com/problemset/problem/445/B" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="M29" r:id="rId7" display="http://codeforces.com/problemset/problem/697/B" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="M34" r:id="rId8" display="http://codeforces.com/problemset/problem/282/B" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="M86" r:id="rId9" display="http://codeforces.com/problemset/problem/165/B" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="M67" r:id="rId10" display="http://codeforces.com/problemset/problem/322/B" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="M16" r:id="rId11" display="http://codeforces.com/problemset/problem/505/B" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="M81" r:id="rId12" display="http://codeforces.com/problemset/problem/614/B" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="M20" r:id="rId13" display="http://codeforces.com/problemset/problem/574/B" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="M94" r:id="rId14" display="http://codeforces.com/problemset/problem/676/B" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="M107" r:id="rId15" display="http://codeforces.com/problemset/problem/577/B" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="M15" r:id="rId16" display="http://codeforces.com/problemset/problem/490/B" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="M110" r:id="rId17" display="http://codeforces.com/problemset/problem/496/B" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="M39" r:id="rId18" display="http://codeforces.com/problemset/problem/608/B" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="M93" r:id="rId19" display="http://codeforces.com/problemset/problem/599/B" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="M13" r:id="rId20" display="http://codeforces.com/problemset/problem/435/B" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="M69" r:id="rId21" display="http://codeforces.com/problemset/problem/495/B" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="M12" r:id="rId22" display="http://codeforces.com/problemset/problem/369/B" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="M104" r:id="rId23" display="http://codeforces.com/problemset/problem/540/B" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="M10" r:id="rId24" display="http://codeforces.com/problemset/problem/332/B" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="M62" r:id="rId25" display="http://codeforces.com/problemset/problem/437/B" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="M101" r:id="rId26" display="http://codeforces.com/problemset/problem/689/B" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="M23" r:id="rId27" display="http://codeforces.com/problemset/problem/615/B" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="M87" r:id="rId28" display="http://codeforces.com/problemset/problem/320/B" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="M17" r:id="rId29" display="http://codeforces.com/problemset/problem/527/B" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="M84" r:id="rId30" display="http://codeforces.com/problemset/problem/745/B" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="M49" r:id="rId31" display="http://codeforces.com/problemset/problem/664/B" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="M108" r:id="rId32" display="http://codeforces.com/problemset/problem/233/B" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="M61" r:id="rId33" display="http://codeforces.com/problemset/problem/415/B" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="M96" r:id="rId34" display="http://codeforces.com/problemset/problem/760/B" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="M9" r:id="rId35" display="http://codeforces.com/problemset/problem/300/B" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="M105" r:id="rId36" display="http://codeforces.com/problemset/problem/353/B" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="M37" r:id="rId37" display="http://codeforces.com/problemset/problem/443/B" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
     <hyperlink ref="M82" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="M7" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="M27" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="M59" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="M71" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="M74" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="M43" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="M11" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="M44" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="M47" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="M78" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="M92" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="M88" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="M25" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="M97" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="M111" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="M35" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="M103" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="M22" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="M73" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="M60" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="M85" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="M65" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="M70" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="M98" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="M36" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="M48" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="M33" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="M42" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="M52" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="M54" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="M55" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="M6" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="M30" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="M28" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="M19" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="M21" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="M31" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="M63" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="M90" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="M95" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="M56" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="M83" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="M64" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="M91" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="M89" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="M18" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="M57" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="M41" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="M77" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="M45" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="M80" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="M75" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="M24" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="M46" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="M8" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="M32" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="M112" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="M72" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="M51" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="M113" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="M109" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="M66" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="M76" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="M79" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="M68" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="M99" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="M106" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="M100" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="M50" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="M114" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="M40" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="M58" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="M115" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="M102" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="M7" r:id="rId39" display="http://codeforces.com/problemset/problem/224/B" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="M27" r:id="rId40" display="http://codeforces.com/problemset/problem/140/B" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="M59" r:id="rId41" display="http://codeforces.com/problemset/problem/219/B" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="M71" r:id="rId42" display="http://codeforces.com/problemset/problem/595/B" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="M74" r:id="rId43" display="http://codeforces.com/problemset/problem/483/B" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="M43" r:id="rId44" display="http://codeforces.com/problemset/problem/275/B" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="M11" r:id="rId45" display="http://codeforces.com/problemset/problem/334/B" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="M44" r:id="rId46" display="http://codeforces.com/problemset/problem/606/B" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="M47" r:id="rId47" display="http://codeforces.com/problemset/problem/208/B" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="M78" r:id="rId48" display="http://codeforces.com/problemset/problem/340/B" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="M92" r:id="rId49" display="http://codeforces.com/problemset/problem/580/B" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="M88" r:id="rId50" display="http://codeforces.com/problemset/problem/384/B" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="M25" r:id="rId51" display="http://codeforces.com/problemset/problem/294/B" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="M97" r:id="rId52" display="http://codeforces.com/problemset/problem/231/B" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="M35" r:id="rId53" display="http://codeforces.com/problemset/problem/342/B" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="M103" r:id="rId54" display="http://codeforces.com/problemset/problem/287/B" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="M22" r:id="rId55" display="http://codeforces.com/problemset/problem/225/B" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="M73" r:id="rId56" display="http://codeforces.com/problemset/problem/466/B" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="M60" r:id="rId57" display="http://codeforces.com/problemset/problem/404/B" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="M85" r:id="rId58" display="http://codeforces.com/problemset/problem/148/B" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="M65" r:id="rId59" display="http://codeforces.com/problemset/problem/190/B" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="M70" r:id="rId60" display="http://codeforces.com/problemset/problem/593/B" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="M98" r:id="rId61" display="http://codeforces.com/problemset/problem/350/B" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="M36" r:id="rId62" display="http://codeforces.com/problemset/problem/358/B" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="M48" r:id="rId63" display="http://codeforces.com/problemset/problem/551/B" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="M33" r:id="rId64" display="http://codeforces.com/problemset/problem/278/B" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="M42" r:id="rId65" display="http://codeforces.com/problemset/problem/260/B" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="M52" r:id="rId66" display="http://codeforces.com/problemset/problem/520/B" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="M54" r:id="rId67" display="http://codeforces.com/problemset/problem/538/B" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="M55" r:id="rId68" display="http://codeforces.com/problemset/problem/588/B" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="M6" r:id="rId69" display="http://codeforces.com/problemset/problem/711/B" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="M30" r:id="rId70" display="http://codeforces.com/problemset/problem/716/B" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="M28" r:id="rId71" display="http://codeforces.com/problemset/problem/448/B" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="M19" r:id="rId72" display="http://codeforces.com/problemset/problem/550/B" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="M21" r:id="rId73" display="http://codeforces.com/problemset/problem/584/B" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="M31" r:id="rId74" display="http://codeforces.com/problemset/problem/719/B" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="M63" r:id="rId75" display="http://codeforces.com/problemset/problem/460/B" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="M90" r:id="rId76" display="http://codeforces.com/problemset/problem/510/B" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="M95" r:id="rId77" display="http://codeforces.com/problemset/problem/742/B" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="M56" r:id="rId78" display="http://codeforces.com/problemset/problem/677/B" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="M83" r:id="rId79" display="http://codeforces.com/problemset/problem/699/B" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="M64" r:id="rId80" display="http://codeforces.com/problemset/problem/675/B" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="M91" r:id="rId81" display="http://codeforces.com/problemset/problem/557/B" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="M89" r:id="rId82" display="http://codeforces.com/problemset/problem/493/B" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="M18" r:id="rId83" display="http://codeforces.com/problemset/problem/525/B" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="M57" r:id="rId84" display="http://codeforces.com/problemset/problem/703/B" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="M41" r:id="rId85" display="http://codeforces.com/problemset/problem/149/B" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="M77" r:id="rId86" display="http://codeforces.com/problemset/problem/166/B" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="M45" r:id="rId87" display="http://codeforces.com/problemset/problem/168/B" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="M80" r:id="rId88" display="http://codeforces.com/problemset/problem/180/B" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="M75" r:id="rId89" display="http://codeforces.com/problemset/problem/199/B" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="M24" r:id="rId90" display="http://codeforces.com/problemset/problem/216/B" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="M46" r:id="rId91" display="http://codeforces.com/problemset/problem/202/B" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="M8" r:id="rId92" display="http://codeforces.com/problemset/problem/237/B" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="M32" r:id="rId93" display="http://codeforces.com/problemset/problem/239/B" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="M72" r:id="rId94" display="http://codeforces.com/problemset/problem/281/B" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="M51" r:id="rId95" display="http://codeforces.com/problemset/problem/296/B" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="M109" r:id="rId96" display="http://codeforces.com/problemset/problem/254/B" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="M66" r:id="rId97" display="http://codeforces.com/problemset/problem/305/B" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="M76" r:id="rId98" display="http://codeforces.com/problemset/problem/336/B" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="M79" r:id="rId99" display="http://codeforces.com/problemset/problem/382/B" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="M68" r:id="rId100" display="http://codeforces.com/problemset/problem/373/B" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="M99" r:id="rId101" display="http://codeforces.com/problemset/problem/374/B" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="M106" r:id="rId102" display="http://codeforces.com/problemset/problem/390/B" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="M100" r:id="rId103" display="http://codeforces.com/problemset/problem/393/B" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="M50" r:id="rId104" display="http://codeforces.com/problemset/problem/399/B" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="M40" r:id="rId105" display="http://codeforces.com/problemset/problem/752/B" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="M58" r:id="rId106" display="http://codeforces.com/problemset/problem/757/B" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="M102" r:id="rId107" display="http://codeforces.com/problemset/problem/768/B" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId113"/>
+  <pageSetup orientation="portrait" r:id="rId108"/>
+  <ignoredErrors>
+    <ignoredError sqref="L102:L110" formulaRange="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/level-2/codeforces-phase-2-3/codeforces-phase-2-3.xlsx
+++ b/level-2/codeforces-phase-2-3/codeforces-phase-2-3.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82FE1B06-5087-4370-B7C5-585072AC6F95}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FA2AB53-A9AE-420B-838C-2723FD783EBE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,93 +46,6 @@
     <t>greedy</t>
   </si>
   <si>
-    <t>http://codeforces.com/problemset/problem/602/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/659/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/711/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/334/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/369/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/435/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/445/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/505/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/525/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/550/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/520/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/534/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/538/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/588/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/677/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/703/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/757/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/219/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/675/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/448/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/697/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/719/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/518/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/614/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/673/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/699/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/745/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/233/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/493/B</t>
-  </si>
-  <si>
     <t>brute force</t>
   </si>
   <si>
@@ -154,27 +67,6 @@
     <t>Learning Time in (min)</t>
   </si>
   <si>
-    <t>http://codeforces.com/problemset/problem/621/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/707/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/471/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/486/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/515/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/572/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/579/B</t>
-  </si>
-  <si>
     <t>https://codeforces.com/problemset/problem/932/B</t>
   </si>
   <si>
@@ -193,12 +85,6 @@
     <t>https://codeforces.com/problemset/problem/27/B</t>
   </si>
   <si>
-    <t>http://codeforces.com/problemset/problem/289/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/479/B</t>
-  </si>
-  <si>
     <t>https://codeforces.com/problemset/problem/799/B</t>
   </si>
   <si>
@@ -220,27 +106,12 @@
     <t>https://codeforces.com/problemset/problem/940/B</t>
   </si>
   <si>
-    <t>http://codeforces.com/problemset/problem/228/B</t>
-  </si>
-  <si>
     <t>https://codeforces.com/problemset/problem/26/B</t>
   </si>
   <si>
     <t>https://codeforces.com/problemset/problem/955/B</t>
   </si>
   <si>
-    <t>http://codeforces.com/problemset/problem/996/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/964/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/912/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/900/B</t>
-  </si>
-  <si>
     <t>https://codeforces.com/problemset/problem/71/B</t>
   </si>
   <si>
@@ -268,33 +139,6 @@
     <t>https://codeforces.com/problemset/problem/787/B</t>
   </si>
   <si>
-    <t>http://codeforces.com/problemset/problem/141/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/197/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/248/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/272/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/337/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/359/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/507/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/514/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/851/B</t>
-  </si>
-  <si>
     <t>https://codeforces.com/problemset/problem/867/B</t>
   </si>
   <si>
@@ -304,27 +148,6 @@
     <t>https://codeforces.com/problemset/problem/868/B</t>
   </si>
   <si>
-    <t>http://codeforces.com/problemset/problem/586/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/610/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/617/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/152/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/558/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/796/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/92/B</t>
-  </si>
-  <si>
     <t>https://codeforces.com/problemset/problem/1003/B</t>
   </si>
   <si>
@@ -340,45 +163,9 @@
     <t>https://codeforces.com/problemset/problem/56/B</t>
   </si>
   <si>
-    <t>http://codeforces.com/problemset/problem/175/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/253/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/270/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/357/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/441/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/544/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/604/B</t>
-  </si>
-  <si>
     <t>https://codeforces.com/problemset/problem/994/B</t>
   </si>
   <si>
-    <t>http://codeforces.com/problemset/problem/205/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/279/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/402/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/430/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/548/B</t>
-  </si>
-  <si>
     <t>https://codeforces.com/problemset/problem/937/B</t>
   </si>
   <si>
@@ -386,6 +173,219 @@
   </si>
   <si>
     <t>https://codeforces.com/problemset/problem/41/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/621/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/707/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/471/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/486/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/515/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/572/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/579/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/659/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/289/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/479/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/602/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/711/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/334/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/369/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/435/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/445/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/505/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/525/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/550/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/228/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/448/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/697/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/719/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/518/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/588/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/996/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/964/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/912/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/900/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/141/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/197/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/248/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/272/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/337/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/359/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/507/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/514/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/520/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/534/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/538/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/677/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/703/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/757/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/219/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/675/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/851/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/586/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/610/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/617/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/152/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/558/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/673/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/796/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/92/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/175/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/253/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/270/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/357/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/441/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/544/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/604/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/614/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/699/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/745/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/493/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/205/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/279/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/402/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/430/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/548/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/233/B</t>
   </si>
 </sst>
 </file>
@@ -1276,25 +1276,25 @@
         <v>7</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="I1" s="18" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="J1" s="18" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="K1" s="18" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="L1" s="18" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="M1" s="16" t="s">
         <v>2</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="14" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="N4" s="10"/>
     </row>
@@ -1422,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="14" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="N5" s="10"/>
     </row>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="14" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="N6" s="12"/>
     </row>
@@ -1472,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="14" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="N7" s="10"/>
     </row>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="14" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="N8" s="12"/>
     </row>
@@ -1522,7 +1522,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="14" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="N9" s="10"/>
     </row>
@@ -1547,7 +1547,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="14" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="N10" s="12"/>
     </row>
@@ -1572,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="14" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="N11" s="10"/>
     </row>
@@ -1597,7 +1597,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="14" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="N12" s="12"/>
     </row>
@@ -1622,7 +1622,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="14" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="N13" s="10"/>
     </row>
@@ -1647,7 +1647,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="14" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="N14" s="12"/>
     </row>
@@ -1672,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="14" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="N15" s="12"/>
     </row>
@@ -1697,7 +1697,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="14" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="N16" s="12"/>
     </row>
@@ -1722,7 +1722,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="14" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="N17" s="12"/>
     </row>
@@ -1747,7 +1747,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="14" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N18" s="12"/>
     </row>
@@ -1772,7 +1772,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="14" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="N19" s="12"/>
     </row>
@@ -1797,7 +1797,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="14" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="N20" s="12"/>
     </row>
@@ -1822,7 +1822,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="14" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="N21" s="12"/>
     </row>
@@ -1847,7 +1847,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="14" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="N22" s="12"/>
     </row>
@@ -1872,7 +1872,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="14" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="N23" s="10"/>
     </row>
@@ -1897,7 +1897,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="14" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="N24" s="12"/>
     </row>
@@ -1922,7 +1922,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="14" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="N25" s="10"/>
     </row>
@@ -1947,7 +1947,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="14" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="N26" s="12"/>
     </row>
@@ -1972,7 +1972,7 @@
         <v>0</v>
       </c>
       <c r="M27" s="14" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="N27" s="12"/>
     </row>
@@ -1997,7 +1997,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="14" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="N28" s="12"/>
     </row>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="14" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="N29" s="12"/>
     </row>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="M30" s="14" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="N30" s="12"/>
     </row>
@@ -2072,7 +2072,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="14" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="N31" s="12"/>
     </row>
@@ -2097,7 +2097,7 @@
         <v>0</v>
       </c>
       <c r="M32" s="14" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="N32" s="12"/>
     </row>
@@ -2122,7 +2122,7 @@
         <v>0</v>
       </c>
       <c r="M33" s="14" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="N33" s="12"/>
     </row>
@@ -2147,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="14" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="N34" s="12"/>
     </row>
@@ -2172,7 +2172,7 @@
         <v>0</v>
       </c>
       <c r="M35" s="14" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="N35" s="12"/>
     </row>
@@ -2197,7 +2197,7 @@
         <v>0</v>
       </c>
       <c r="M36" s="14" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="N36" s="12"/>
     </row>
@@ -2222,7 +2222,7 @@
         <v>0</v>
       </c>
       <c r="M37" s="14" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="N37" s="10"/>
     </row>
@@ -2247,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="M38" s="14" t="s">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="N38" s="12"/>
     </row>
@@ -2272,7 +2272,7 @@
         <v>0</v>
       </c>
       <c r="M39" s="14" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="N39" s="12"/>
     </row>
@@ -2297,7 +2297,7 @@
         <v>0</v>
       </c>
       <c r="M40" s="14" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="N40" s="12"/>
     </row>
@@ -2322,7 +2322,7 @@
         <v>0</v>
       </c>
       <c r="M41" s="14" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="N41" s="12"/>
     </row>
@@ -2347,7 +2347,7 @@
         <v>0</v>
       </c>
       <c r="M42" s="14" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="N42" s="12"/>
     </row>
@@ -2368,11 +2368,11 @@
       <c r="J43" s="11"/>
       <c r="K43" s="11"/>
       <c r="L43" s="8">
-        <f t="shared" ref="L43:L115" si="2">SUM(G43:K43)</f>
+        <f t="shared" ref="L43:L110" si="2">SUM(G43:K43)</f>
         <v>0</v>
       </c>
       <c r="M43" s="14" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="N43" s="12"/>
     </row>
@@ -2397,7 +2397,7 @@
         <v>0</v>
       </c>
       <c r="M44" s="14" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="N44" s="12"/>
     </row>
@@ -2422,7 +2422,7 @@
         <v>0</v>
       </c>
       <c r="M45" s="14" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="N45" s="12"/>
     </row>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="M46" s="14" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="N46" s="12"/>
     </row>
@@ -2472,7 +2472,7 @@
         <v>0</v>
       </c>
       <c r="M47" s="14" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="N47" s="12"/>
     </row>
@@ -2497,7 +2497,7 @@
         <v>0</v>
       </c>
       <c r="M48" s="14" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="N48" s="12"/>
     </row>
@@ -2522,7 +2522,7 @@
         <v>0</v>
       </c>
       <c r="M49" s="14" t="s">
-        <v>74</v>
+        <v>31</v>
       </c>
       <c r="N49" s="12"/>
     </row>
@@ -2547,7 +2547,7 @@
         <v>0</v>
       </c>
       <c r="M50" s="14" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="N50" s="12"/>
     </row>
@@ -2572,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="M51" s="14" t="s">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="N51" s="12"/>
     </row>
@@ -2597,7 +2597,7 @@
         <v>0</v>
       </c>
       <c r="M52" s="14" t="s">
-        <v>77</v>
+        <v>34</v>
       </c>
       <c r="N52" s="12"/>
     </row>
@@ -2622,7 +2622,7 @@
         <v>0</v>
       </c>
       <c r="M53" s="14" t="s">
-        <v>78</v>
+        <v>35</v>
       </c>
       <c r="N53" s="12"/>
     </row>
@@ -2647,7 +2647,7 @@
         <v>0</v>
       </c>
       <c r="M54" s="14" t="s">
-        <v>79</v>
+        <v>36</v>
       </c>
       <c r="N54" s="12"/>
     </row>
@@ -2672,7 +2672,7 @@
         <v>0</v>
       </c>
       <c r="M55" s="14" t="s">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="N55" s="12"/>
     </row>
@@ -2697,7 +2697,7 @@
         <v>0</v>
       </c>
       <c r="M56" s="14" t="s">
-        <v>81</v>
+        <v>38</v>
       </c>
       <c r="N56" s="12"/>
     </row>
@@ -2722,7 +2722,7 @@
         <v>0</v>
       </c>
       <c r="M57" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="N57" s="12"/>
     </row>
@@ -2747,7 +2747,7 @@
         <v>0</v>
       </c>
       <c r="M58" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="N58" s="12"/>
     </row>
@@ -2772,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="M59" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N59" s="12"/>
     </row>
@@ -2797,7 +2797,7 @@
         <v>0</v>
       </c>
       <c r="M60" s="14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N60" s="12"/>
     </row>
@@ -2822,7 +2822,7 @@
         <v>0</v>
       </c>
       <c r="M61" s="14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="N61" s="10"/>
     </row>
@@ -2847,7 +2847,7 @@
         <v>0</v>
       </c>
       <c r="M62" s="14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="N62" s="12"/>
     </row>
@@ -2872,7 +2872,7 @@
         <v>0</v>
       </c>
       <c r="M63" s="14" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="N63" s="12"/>
     </row>
@@ -2897,7 +2897,7 @@
         <v>0</v>
       </c>
       <c r="M64" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="N64" s="12"/>
     </row>
@@ -2922,7 +2922,7 @@
         <v>0</v>
       </c>
       <c r="M65" s="14" t="s">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="N65" s="12"/>
     </row>
@@ -2947,7 +2947,7 @@
         <v>0</v>
       </c>
       <c r="M66" s="14" t="s">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="N66" s="12"/>
     </row>
@@ -2972,7 +2972,7 @@
         <v>0</v>
       </c>
       <c r="M67" s="14" t="s">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="N67" s="12"/>
     </row>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="M68" s="14" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="N68" s="10"/>
     </row>
@@ -3022,7 +3022,7 @@
         <v>0</v>
       </c>
       <c r="M69" s="14" t="s">
-        <v>23</v>
+        <v>92</v>
       </c>
       <c r="N69" s="12"/>
     </row>
@@ -3047,7 +3047,7 @@
         <v>0</v>
       </c>
       <c r="M70" s="14" t="s">
-        <v>24</v>
+        <v>93</v>
       </c>
       <c r="N70" s="10"/>
     </row>
@@ -3072,7 +3072,7 @@
         <v>0</v>
       </c>
       <c r="M71" s="14" t="s">
-        <v>25</v>
+        <v>94</v>
       </c>
       <c r="N71" s="12"/>
     </row>
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="M72" s="14" t="s">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="N72" s="12"/>
     </row>
@@ -3122,7 +3122,7 @@
         <v>0</v>
       </c>
       <c r="M73" s="14" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="N73" s="12"/>
     </row>
@@ -3147,7 +3147,7 @@
         <v>0</v>
       </c>
       <c r="M74" s="14" t="s">
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="N74" s="12"/>
     </row>
@@ -3172,7 +3172,7 @@
         <v>0</v>
       </c>
       <c r="M75" s="14" t="s">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="N75" s="12"/>
     </row>
@@ -3197,7 +3197,7 @@
         <v>0</v>
       </c>
       <c r="M76" s="14" t="s">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="N76" s="12"/>
     </row>
@@ -3222,7 +3222,7 @@
         <v>0</v>
       </c>
       <c r="M77" s="14" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="N77" s="12"/>
     </row>
@@ -3247,7 +3247,7 @@
         <v>0</v>
       </c>
       <c r="M78" s="14" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="N78" s="10"/>
     </row>
@@ -3272,7 +3272,7 @@
         <v>0</v>
       </c>
       <c r="M79" s="14" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="N79" s="12"/>
     </row>
@@ -3297,7 +3297,7 @@
         <v>0</v>
       </c>
       <c r="M80" s="14" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="N80" s="12"/>
     </row>
@@ -3322,7 +3322,7 @@
         <v>0</v>
       </c>
       <c r="M81" s="14" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="N81" s="12"/>
     </row>
@@ -3347,7 +3347,7 @@
         <v>0</v>
       </c>
       <c r="M82" s="14" t="s">
-        <v>32</v>
+        <v>102</v>
       </c>
       <c r="N82" s="12"/>
     </row>
@@ -3372,7 +3372,7 @@
         <v>0</v>
       </c>
       <c r="M83" s="14" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="N83" s="10"/>
     </row>
@@ -3397,7 +3397,7 @@
         <v>0</v>
       </c>
       <c r="M84" s="14" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="N84" s="12"/>
     </row>
@@ -3422,7 +3422,7 @@
         <v>0</v>
       </c>
       <c r="M85" s="14" t="s">
-        <v>101</v>
+        <v>42</v>
       </c>
       <c r="N85" s="12"/>
     </row>
@@ -3447,7 +3447,7 @@
         <v>0</v>
       </c>
       <c r="M86" s="14" t="s">
-        <v>102</v>
+        <v>43</v>
       </c>
       <c r="N86" s="10"/>
     </row>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="M87" s="14" t="s">
-        <v>103</v>
+        <v>44</v>
       </c>
       <c r="N87" s="12"/>
     </row>
@@ -3497,7 +3497,7 @@
         <v>0</v>
       </c>
       <c r="M88" s="14" t="s">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="N88" s="12"/>
     </row>
@@ -3522,7 +3522,7 @@
         <v>0</v>
       </c>
       <c r="M89" s="14" t="s">
-        <v>105</v>
+        <v>46</v>
       </c>
       <c r="N89" s="12"/>
     </row>
@@ -3547,7 +3547,7 @@
         <v>0</v>
       </c>
       <c r="M90" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N90" s="10"/>
     </row>
@@ -3572,7 +3572,7 @@
         <v>0</v>
       </c>
       <c r="M91" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N91" s="10"/>
     </row>
@@ -3597,7 +3597,7 @@
         <v>0</v>
       </c>
       <c r="M92" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N92" s="12"/>
     </row>
@@ -3622,7 +3622,7 @@
         <v>0</v>
       </c>
       <c r="M93" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N93" s="12"/>
     </row>
@@ -3647,7 +3647,7 @@
         <v>0</v>
       </c>
       <c r="M94" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N94" s="12"/>
     </row>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="M95" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N95" s="10"/>
     </row>
@@ -3697,7 +3697,7 @@
         <v>0</v>
       </c>
       <c r="M96" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N96" s="10"/>
     </row>
@@ -3722,7 +3722,7 @@
         <v>0</v>
       </c>
       <c r="M97" s="14" t="s">
-        <v>31</v>
+        <v>112</v>
       </c>
       <c r="N97" s="12"/>
     </row>
@@ -3747,7 +3747,7 @@
         <v>0</v>
       </c>
       <c r="M98" s="14" t="s">
-        <v>33</v>
+        <v>113</v>
       </c>
       <c r="N98" s="12"/>
     </row>
@@ -3772,7 +3772,7 @@
         <v>0</v>
       </c>
       <c r="M99" s="14" t="s">
-        <v>34</v>
+        <v>114</v>
       </c>
       <c r="N99" s="12"/>
     </row>
@@ -3797,7 +3797,7 @@
         <v>0</v>
       </c>
       <c r="M100" s="14" t="s">
-        <v>36</v>
+        <v>115</v>
       </c>
       <c r="N100" s="12"/>
     </row>
@@ -3822,7 +3822,7 @@
         <v>0</v>
       </c>
       <c r="M101" s="14" t="s">
-        <v>113</v>
+        <v>47</v>
       </c>
       <c r="N101" s="10"/>
     </row>
@@ -3847,7 +3847,7 @@
         <v>0</v>
       </c>
       <c r="M102" s="14" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="N102" s="12"/>
     </row>
@@ -3872,7 +3872,7 @@
         <v>0</v>
       </c>
       <c r="M103" s="14" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="N103" s="12"/>
     </row>
@@ -3897,7 +3897,7 @@
         <v>0</v>
       </c>
       <c r="M104" s="14" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="N104" s="12"/>
     </row>
@@ -3922,7 +3922,7 @@
         <v>0</v>
       </c>
       <c r="M105" s="14" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="N105" s="12"/>
     </row>
@@ -3947,7 +3947,7 @@
         <v>0</v>
       </c>
       <c r="M106" s="14" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="N106" s="12"/>
     </row>
@@ -3972,7 +3972,7 @@
         <v>0</v>
       </c>
       <c r="M107" s="14" t="s">
-        <v>35</v>
+        <v>121</v>
       </c>
       <c r="N107" s="12"/>
     </row>
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="M108" s="14" t="s">
-        <v>119</v>
+        <v>48</v>
       </c>
       <c r="N108" s="12"/>
     </row>
@@ -4022,7 +4022,7 @@
         <v>0</v>
       </c>
       <c r="M109" s="14" t="s">
-        <v>120</v>
+        <v>49</v>
       </c>
       <c r="N109" s="12"/>
     </row>
@@ -4047,7 +4047,7 @@
         <v>0</v>
       </c>
       <c r="M110" s="14" t="s">
-        <v>121</v>
+        <v>50</v>
       </c>
       <c r="N110" s="12"/>
     </row>
@@ -4877,117 +4877,8 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <hyperlinks>
-    <hyperlink ref="M26" r:id="rId1" display="http://codeforces.com/problemset/problem/349/B" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="M53" r:id="rId2" display="http://codeforces.com/problemset/problem/534/B" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="M4" r:id="rId3" display="http://codeforces.com/problemset/problem/602/B" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="M5" r:id="rId4" display="http://codeforces.com/problemset/problem/659/B" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="M38" r:id="rId5" display="http://codeforces.com/problemset/problem/518/B" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="M14" r:id="rId6" display="http://codeforces.com/problemset/problem/445/B" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="M29" r:id="rId7" display="http://codeforces.com/problemset/problem/697/B" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="M34" r:id="rId8" display="http://codeforces.com/problemset/problem/282/B" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="M86" r:id="rId9" display="http://codeforces.com/problemset/problem/165/B" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="M67" r:id="rId10" display="http://codeforces.com/problemset/problem/322/B" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="M16" r:id="rId11" display="http://codeforces.com/problemset/problem/505/B" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="M81" r:id="rId12" display="http://codeforces.com/problemset/problem/614/B" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="M20" r:id="rId13" display="http://codeforces.com/problemset/problem/574/B" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="M94" r:id="rId14" display="http://codeforces.com/problemset/problem/676/B" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="M107" r:id="rId15" display="http://codeforces.com/problemset/problem/577/B" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="M15" r:id="rId16" display="http://codeforces.com/problemset/problem/490/B" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="M110" r:id="rId17" display="http://codeforces.com/problemset/problem/496/B" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="M39" r:id="rId18" display="http://codeforces.com/problemset/problem/608/B" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="M93" r:id="rId19" display="http://codeforces.com/problemset/problem/599/B" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="M13" r:id="rId20" display="http://codeforces.com/problemset/problem/435/B" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="M69" r:id="rId21" display="http://codeforces.com/problemset/problem/495/B" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="M12" r:id="rId22" display="http://codeforces.com/problemset/problem/369/B" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="M104" r:id="rId23" display="http://codeforces.com/problemset/problem/540/B" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="M10" r:id="rId24" display="http://codeforces.com/problemset/problem/332/B" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="M62" r:id="rId25" display="http://codeforces.com/problemset/problem/437/B" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="M101" r:id="rId26" display="http://codeforces.com/problemset/problem/689/B" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="M23" r:id="rId27" display="http://codeforces.com/problemset/problem/615/B" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="M87" r:id="rId28" display="http://codeforces.com/problemset/problem/320/B" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="M17" r:id="rId29" display="http://codeforces.com/problemset/problem/527/B" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="M84" r:id="rId30" display="http://codeforces.com/problemset/problem/745/B" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="M49" r:id="rId31" display="http://codeforces.com/problemset/problem/664/B" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="M108" r:id="rId32" display="http://codeforces.com/problemset/problem/233/B" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="M61" r:id="rId33" display="http://codeforces.com/problemset/problem/415/B" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="M96" r:id="rId34" display="http://codeforces.com/problemset/problem/760/B" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="M9" r:id="rId35" display="http://codeforces.com/problemset/problem/300/B" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="M105" r:id="rId36" display="http://codeforces.com/problemset/problem/353/B" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="M37" r:id="rId37" display="http://codeforces.com/problemset/problem/443/B" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="M82" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="M7" r:id="rId39" display="http://codeforces.com/problemset/problem/224/B" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="M27" r:id="rId40" display="http://codeforces.com/problemset/problem/140/B" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="M59" r:id="rId41" display="http://codeforces.com/problemset/problem/219/B" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="M71" r:id="rId42" display="http://codeforces.com/problemset/problem/595/B" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="M74" r:id="rId43" display="http://codeforces.com/problemset/problem/483/B" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="M43" r:id="rId44" display="http://codeforces.com/problemset/problem/275/B" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="M11" r:id="rId45" display="http://codeforces.com/problemset/problem/334/B" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="M44" r:id="rId46" display="http://codeforces.com/problemset/problem/606/B" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="M47" r:id="rId47" display="http://codeforces.com/problemset/problem/208/B" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="M78" r:id="rId48" display="http://codeforces.com/problemset/problem/340/B" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="M92" r:id="rId49" display="http://codeforces.com/problemset/problem/580/B" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="M88" r:id="rId50" display="http://codeforces.com/problemset/problem/384/B" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="M25" r:id="rId51" display="http://codeforces.com/problemset/problem/294/B" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="M97" r:id="rId52" display="http://codeforces.com/problemset/problem/231/B" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="M35" r:id="rId53" display="http://codeforces.com/problemset/problem/342/B" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="M103" r:id="rId54" display="http://codeforces.com/problemset/problem/287/B" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="M22" r:id="rId55" display="http://codeforces.com/problemset/problem/225/B" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="M73" r:id="rId56" display="http://codeforces.com/problemset/problem/466/B" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="M60" r:id="rId57" display="http://codeforces.com/problemset/problem/404/B" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="M85" r:id="rId58" display="http://codeforces.com/problemset/problem/148/B" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="M65" r:id="rId59" display="http://codeforces.com/problemset/problem/190/B" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="M70" r:id="rId60" display="http://codeforces.com/problemset/problem/593/B" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="M98" r:id="rId61" display="http://codeforces.com/problemset/problem/350/B" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="M36" r:id="rId62" display="http://codeforces.com/problemset/problem/358/B" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="M48" r:id="rId63" display="http://codeforces.com/problemset/problem/551/B" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="M33" r:id="rId64" display="http://codeforces.com/problemset/problem/278/B" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="M42" r:id="rId65" display="http://codeforces.com/problemset/problem/260/B" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="M52" r:id="rId66" display="http://codeforces.com/problemset/problem/520/B" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="M54" r:id="rId67" display="http://codeforces.com/problemset/problem/538/B" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="M55" r:id="rId68" display="http://codeforces.com/problemset/problem/588/B" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="M6" r:id="rId69" display="http://codeforces.com/problemset/problem/711/B" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="M30" r:id="rId70" display="http://codeforces.com/problemset/problem/716/B" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="M28" r:id="rId71" display="http://codeforces.com/problemset/problem/448/B" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="M19" r:id="rId72" display="http://codeforces.com/problemset/problem/550/B" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="M21" r:id="rId73" display="http://codeforces.com/problemset/problem/584/B" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="M31" r:id="rId74" display="http://codeforces.com/problemset/problem/719/B" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="M63" r:id="rId75" display="http://codeforces.com/problemset/problem/460/B" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="M90" r:id="rId76" display="http://codeforces.com/problemset/problem/510/B" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="M95" r:id="rId77" display="http://codeforces.com/problemset/problem/742/B" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="M56" r:id="rId78" display="http://codeforces.com/problemset/problem/677/B" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="M83" r:id="rId79" display="http://codeforces.com/problemset/problem/699/B" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="M64" r:id="rId80" display="http://codeforces.com/problemset/problem/675/B" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="M91" r:id="rId81" display="http://codeforces.com/problemset/problem/557/B" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="M89" r:id="rId82" display="http://codeforces.com/problemset/problem/493/B" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="M18" r:id="rId83" display="http://codeforces.com/problemset/problem/525/B" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="M57" r:id="rId84" display="http://codeforces.com/problemset/problem/703/B" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="M41" r:id="rId85" display="http://codeforces.com/problemset/problem/149/B" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="M77" r:id="rId86" display="http://codeforces.com/problemset/problem/166/B" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="M45" r:id="rId87" display="http://codeforces.com/problemset/problem/168/B" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="M80" r:id="rId88" display="http://codeforces.com/problemset/problem/180/B" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="M75" r:id="rId89" display="http://codeforces.com/problemset/problem/199/B" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="M24" r:id="rId90" display="http://codeforces.com/problemset/problem/216/B" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="M46" r:id="rId91" display="http://codeforces.com/problemset/problem/202/B" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="M8" r:id="rId92" display="http://codeforces.com/problemset/problem/237/B" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="M32" r:id="rId93" display="http://codeforces.com/problemset/problem/239/B" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="M72" r:id="rId94" display="http://codeforces.com/problemset/problem/281/B" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="M51" r:id="rId95" display="http://codeforces.com/problemset/problem/296/B" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="M109" r:id="rId96" display="http://codeforces.com/problemset/problem/254/B" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="M66" r:id="rId97" display="http://codeforces.com/problemset/problem/305/B" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="M76" r:id="rId98" display="http://codeforces.com/problemset/problem/336/B" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="M79" r:id="rId99" display="http://codeforces.com/problemset/problem/382/B" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="M68" r:id="rId100" display="http://codeforces.com/problemset/problem/373/B" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="M99" r:id="rId101" display="http://codeforces.com/problemset/problem/374/B" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="M106" r:id="rId102" display="http://codeforces.com/problemset/problem/390/B" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="M100" r:id="rId103" display="http://codeforces.com/problemset/problem/393/B" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="M50" r:id="rId104" display="http://codeforces.com/problemset/problem/399/B" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="M40" r:id="rId105" display="http://codeforces.com/problemset/problem/752/B" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="M58" r:id="rId106" display="http://codeforces.com/problemset/problem/757/B" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="M102" r:id="rId107" display="http://codeforces.com/problemset/problem/768/B" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId108"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="L102:L110" formulaRange="1"/>
   </ignoredErrors>
